--- a/debian11_result_su5.xlsx
+++ b/debian11_result_su5.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q196"/>
+  <dimension ref="A1:Q220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,6 +616,11 @@
           <t>/etc/cron.deny</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>stat: cannot statx '/etc/cron.deny': No such file or directory</t>
@@ -656,6 +661,11 @@
           <t>/etc/at.deny</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>stat: cannot statx '/etc/at.deny': No such file or directory</t>
@@ -696,6 +706,11 @@
           <t>~/.forward</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>stat: cannot statx '/root/.forward': No such file or directory</t>
@@ -736,6 +751,11 @@
           <t>~/.netrc</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>stat: cannot statx '/root/.netrc': No such file or directory</t>
@@ -771,6 +791,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/freevxfs.conf and add the following line:  install freevxfs /bin/true  Run the following command to unload the freevxfs module:  rmmod freevxfs</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>/sbin/modprobe -n -v freevxfs | /usr/bin/awk '{print} END {if (NR == 0) print "fail"}'</t>
@@ -816,6 +841,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/freevxfs.conf and add the following line:  install freevxfs /bin/true  Run the following command to unload the freevxfs module:  rmmod freevxfs</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>/usr/sbin/lsmod | /bin/grep freevxfs | /usr/bin/awk '{print} END {if (NR == 0) print "pass" ; else print "fail"}'</t>
@@ -861,6 +891,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/jffs2.conf and add the following line:  install jffs2 /bin/true  Run the following command to unload the jffs2 module:  # rmmod jffs2</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>/sbin/modprobe -n -v jffs2 | /usr/bin/awk '{print} END {if (NR == 0) print "fail"}'</t>
@@ -906,6 +941,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/jffs2.conf and add the following line:  install jffs2 /bin/true  Run the following command to unload the jffs2 module:  # rmmod jffs2</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>/sbin/lsmod | /bin/grep jffs2 | /usr/bin/awk '{print} END {if (NR == 0) print "pass" ; else print "fail"}'</t>
@@ -951,6 +991,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/hfs.conf and add the following line:  install hfs /bin/true  Run the following command to unload the hfs module:  # rmmod hfs</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>/sbin/modprobe -n -v hfs | /usr/bin/awk '{print} END {if (NR == 0) print "fail"}'</t>
@@ -996,6 +1041,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/hfs.conf and add the following line:  install hfs /bin/true  Run the following command to unload the hfs module:  # rmmod hfs</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>/sbin/lsmod | /bin/grep hfs | /usr/bin/awk '{print} END {if (NR == 0) print "pass" ; else print "fail"}'</t>
@@ -1041,6 +1091,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/hfsplus.conf and add the following line:  install hfsplus /bin/true  Run the following command to unload the hfsplus module:  # rmmod hfsplus</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>/sbin/modprobe -n -v hfsplus  | /usr/bin/awk '{print} END {if (NR == 0) print "fail"}'</t>
@@ -1086,6 +1141,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/hfsplus.conf and add the following line:  install hfsplus /bin/true  Run the following command to unload the hfsplus module:  # rmmod hfsplus</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>/sbin/lsmod | /bin/grep hfsplus | /usr/bin/awk '{print} END {if (NR == 0) print "pass" ; else print "fail"}'</t>
@@ -1131,6 +1191,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/squashfs.conf and add the following line:  install squashfs /bin/true  Run the following command to unload the squashfs module:  # rmmod squashfs</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>/sbin/modprobe -n -v squashfs | /usr/bin/awk '{print} END {if (NR == 0) print "fail"}'</t>
@@ -1176,6 +1241,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/squashfs.conf and add the following line:  install squashfs /bin/true  Run the following command to unload the squashfs module:  # rmmod squashfs</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>/sbin/lsmod | /bin/grep squashfs | /usr/bin/awk '{print} END {if (NR == 0) print "pass" ; else print "fail"}'</t>
@@ -1221,6 +1291,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/udf.conf and add the following line:  install udf /bin/true  Run the following command to unload the udf module:  # rmmod udf</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>/sbin/modprobe -n -v udf | /usr/bin/awk '{print} END {if (NR == 0) print "fail"}'</t>
@@ -1266,6 +1341,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/udf.conf and add the following line:  install udf /bin/true  Run the following command to unload the udf module:  # rmmod udf</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>/sbin/lsmod | /bin/grep udf | /usr/bin/awk '{print} END {if (NR == 0) print "pass" ; else print "fail"}'</t>
@@ -1311,6 +1391,11 @@
           <t>Configure /etc/fstab as appropriate.  example: tmpfs/tmptmpfs     defaults,rw,nosuid,nodev,noexec,relatime  0 0  OR Run the following commands to enable systemd /tmp mounting:  systemctl unmask tmp.mount systemctl enable tmp.mount  Edit /etc/systemd/system/local-fs.target.wants/tmp.mount to configure the /tmp mount:  [Mount] What=tmpfs Where=/tmp Type=tmpfs Options=mode=1777,strictatime,noexec,nodev,nosuid  Impact:  Since the /tmp directory is intended to be world-writable, there is a risk of resource exhaustion if it is not bound to a separate partition.  Running out of /tmp space is a problem regardless of what kind of filesystem lies under it, but in a default installation a disk-based /tmp will essentially have the whole disk available, as it only creates a single / partition. On the other hand, a RAM-based /tmp as with tmpfs will almost certainly be much smaller, which can lead to applications filling up the filesystem much more easily.  /tmp utalizing tmpfs can be resized using the size={size} parameter on the Options line on the tmp.mount file</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled tmp.mount</t>
@@ -1356,6 +1441,11 @@
           <t>Configure /etc/fstab as appropriate.  example: tmpfs/tmptmpfs     defaults,rw,nosuid,nodev,noexec,relatime  0 0  OR Run the following commands to enable systemd /tmp mounting:  systemctl unmask tmp.mount systemctl enable tmp.mount  Edit /etc/systemd/system/local-fs.target.wants/tmp.mount to configure the /tmp mount:  [Mount] What=tmpfs Where=/tmp Type=tmpfs Options=mode=1777,strictatime,noexec,nodev,nosuid  Impact:  Since the /tmp directory is intended to be world-writable, there is a risk of resource exhaustion if it is not bound to a separate partition.  Running out of /tmp space is a problem regardless of what kind of filesystem lies under it, but in a default installation a disk-based /tmp will essentially have the whole disk available, as it only creates a single / partition. On the other hand, a RAM-based /tmp as with tmpfs will almost certainly be much smaller, which can lead to applications filling up the filesystem much more easily.  /tmp utalizing tmpfs can be resized using the size={size} parameter on the Options line on the tmp.mount file</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /tmp</t>
@@ -1396,6 +1486,11 @@
           <t>Edit the /etc/fstab file and add nodev to the fourth field (mounting options) for the /tmp partition. See the fstab(5) manual page for more information. Run the following command to remount /tmp :  # mount -o remount,nodev /tmp  OR Edit /etc/systemd/system/local-fs.target.wants/tmp.mount to add nodev to the /tmp mount options:  [Mount] Options=mode=1777,strictatime,noexec,nodev,nosuid  Run the following command to remount /tmp :  # mount -o remount,nodev /tmp</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /tmp</t>
@@ -1436,6 +1531,11 @@
           <t>Edit the /etc/fstab file and add nosuid to the fourth field (mounting options) for the /tmp partition. See the fstab(5) manual page for more information. Run the following command to remount /tmp :  # mount -o remount,nosuid /tmp  OR Edit /etc/systemd/system/local-fs.target.wants/tmp.mount to add nosuid to the /tmp mount options:  [Mount] Options=mode=1777,strictatime,noexec,nodev,nosuid  Run the following command to remount /tmp :  # mount -o remount,nosuid /tmp</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /tmp</t>
@@ -1476,6 +1576,11 @@
           <t>Edit the /etc/fstab file and add noexec to the fourth field (mounting options) for the /tmp partition. See the fstab(5) manual page for more information. Run the following command to remount /tmp :  # mount -o remount,noexec /tmp  OR Edit /etc/systemd/system/local-fs.target.wants/tmp.mount to add noexec to the /tmp mount options:  [Mount] Options=mode=1777,strictatime,noexec,nodev,nosuid  Run the following command to remount /tmp :  # mount -o remount,noexec /tmp</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /tmp</t>
@@ -1516,6 +1621,11 @@
           <t>Edit the /etc/fstab file and add nodev to the fourth field (mounting options) for the /var/tmp partition. See the fstab(5) manual page for more information. Run the following command to remount /var/tmp :  # mount -o remount,nodev /var/tmp</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /var/tmp</t>
@@ -1556,6 +1666,11 @@
           <t>Edit the /etc/fstab file and add nosuid to the fourth field (mounting options) for the /var/tmp partition. See the fstab(5) manual page for more information. Run the following command to remount /var/tmp :  # mount -o remount,nosuid /var/tmp</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /var/tmp</t>
@@ -1596,6 +1711,11 @@
           <t>Edit the /etc/fstab file and add noexec to the fourth field (mounting options) for the /var/tmp partition. See the fstab(5) manual page for more information. Run the following command to remount /var/tmp :  # mount -o remount,noexec /var/tmp</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /var/tmp</t>
@@ -1636,6 +1756,11 @@
           <t>Edit the /etc/fstab file and add nodev to the fourth field (mounting options) for the /home partition. See the fstab(5) manual page for more information.  # mount -o remount,nodev /home  Notes:  The actions in this recommendation refer to the /homepartition, which is the default user partition that is defined in many distributions. If you have created other user partitions, it is recommended that the Remediation and Audit steps be applied to these partitions as well.</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /home</t>
@@ -1676,6 +1801,11 @@
           <t>Edit the /etc/fstab file and add nodev to the fourth field (mounting options) for the /dev/shm partition. See the fstab(5) manual page for more information. Run the following command to remount /dev/shm :  # mount -o remount,nodev /dev/shm</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /dev/shm</t>
@@ -1721,6 +1851,11 @@
           <t>Edit the /etc/fstab file and add nosuid to the fourth field (mounting options) for the /dev/shm partition. See the fstab(5) manual page for more information. Run the following command to remount /dev/shm :  # mount -o remount,nosuid /dev/shm  Notes:  The setting in /etc/default/rcS, if present, will still be used, but the setting in /etc/default/tmpfs will take precedence if enabled. If desired, the defaults may also be overridden with an entry in in /etc/fstab  /run/shm was previously /dev/shm, and a compatibility symlink or bind mount will be created to allow the old path to continue to function. If an fstab entry for /dev/shm exists instead of /run/shm, then /dev/shm will continue to be used.</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /dev/shm</t>
@@ -1766,6 +1901,11 @@
           <t>Edit the /etc/fstab file and add noexec to the fourth field (mounting options) for the /dev/shm partition. See the fstab(5) manual page for more information. Run the following command to remount /dev/shm:  # mount -o remount,noexec /dev/shm  Notes:  The setting in /etc/default/rcS, if present, will still be used, but the setting in /etc/default/tmpfs will take precedence if enabled. If desired, the defaults may also be overridden with an entry in in /etc/fstab  /run/shm was previously /dev/shm, and a compatibility symlink or bind mount will be created to allow the old path to continue to function. If an fstab entry for /dev/shm exists instead of /run/shm, then /dev/shm will continue to be used.</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep /dev/shm</t>
@@ -1811,6 +1951,11 @@
           <t>Edit the /etc/fstab file and add nodev to the fourth field (mounting options) of all removable media partitions. Look for entries that have mount points that contain words such as floppy or cdrom. See the fstab(5) manual page for more information.</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep -P 'on[\s]+/dev/(floppy|cdrom|corder|mmcblk)'</t>
@@ -1851,6 +1996,11 @@
           <t>Edit the /etc/fstab file and add nosuid to the fourth field (mounting options) of all removable media partitions. Look for entries that have mount points that contain words such as floppy or cdrom. See the fstab(5) manual page for more information.</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep -P 'on[\s]+/dev/(floppy|cdrom|corder|mmcblk)'</t>
@@ -1891,6 +2041,11 @@
           <t>Edit the /etc/fstab file and add noexec to the fourth field (mounting options) of all removable media partitions. Look for entries that have mount points that contain words such as floppy or cdrom. See the fstab(5) manual page for more information.</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>/bin/mount | /bin/grep -P 'on[\s]+/dev/(floppy|cdrom|corder|mmcblk)'</t>
@@ -1931,6 +2086,11 @@
           <t>Run the following command to set the sticky bit on all world writable directories:  # df --local -P | awk '{if (NR!=1) print $6}' | xargs -I '{}' find '{}' -xdev -type d \( -perm -0002 -a ! -perm -1000 \) 2&amp;gt;/dev/null | xargs -I '{}' chmod a+t '{}'  Notes:  Some distributions may not support the --local option to df.</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>/bin/df --local -P | /usr/bin/awk {'if (NR!=1) print $6'} | /usr/bin/xargs -I '{}' /usr/bin/find '{}' -xdev -type d \( -perm -0002 -a ! -perm -1000 \) 2&gt;/dev/null | /usr/bin/awk '{print} END {if (NR == 0) print "none"}'</t>
@@ -1976,6 +2136,11 @@
           <t>Run one of the following commands: Run the following command to disable autofs :  # systemctl --now disable autofs  OR Run the following command to remove autofs  # apt purge autofs  Impact:  The use of portable hard drives is very common for workstation users. If your organization allows the use of portable storage or media on workstations and physical access controls to workstations is considered adequate there is little value add in turning off automounting.  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.  This control should align with the tolerance of the use of portable drives and optical media in the organization. On a server requiring an admin to manually mount media can be part of defense-in-depth to reduce the risk of unapproved software or information being introduced or proprietary software or information being exfiltrated. If admins commonly use flash drives and Server access has sufficient physical controls, requiring manual mounting may not increase security.</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled autofs | /usr/bin/awk '{print} END {if(NR==0) print "disabled" }'</t>
@@ -2021,6 +2186,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/usb_storage.conf and add the following line:  install usb-storage /bin/true  Run the following command to unload the usb-storage module:  rmmod usb-storage  Notes:  An alternative solution to disabling the usb-storage module may be found in USBGuard.  Use of USBGuard and construction of USB device policies should be done in alignment with site policy.</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>/sbin/modprobe -n -v usb-storage | /usr/bin/awk '{print} END {if (NR == 0) print "fail"}'</t>
@@ -2066,6 +2236,11 @@
           <t>Edit or create a file in the /etc/modprobe.d/ directory ending in .conf Example: vi /etc/modprobe.d/usb_storage.conf and add the following line:  install usb-storage /bin/true  Run the following command to unload the usb-storage module:  rmmod usb-storage  Notes:  An alternative solution to disabling the usb-storage module may be found in USBGuard.  Use of USBGuard and construction of USB device policies should be done in alignment with site policy.</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>/usr/sbin/lsmod | /bin/grep usb-storage | /usr/bin/awk '{print} END {if (NR == 0) print "pass" ; else print "fail"}'</t>
@@ -2111,6 +2286,11 @@
           <t>Configure your package manager repositories according to site policy.</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>/usr/bin/apt-cache policy</t>
@@ -2151,6 +2331,11 @@
           <t>Update your package manager GPG keys in accordance with site policy.</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>/usr/bin/apt-key list</t>
@@ -2191,6 +2376,11 @@
           <t>Install sudo using the following command.  # apt install sudo  OR  # apt install sudo-ldap</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s sudo sudo-ldap 2&gt;&amp;1</t>
@@ -2236,6 +2426,11 @@
           <t>edit the file /etc/sudoers or a file in /etc/sudoers.d/ with visudo -f and add the following line:  Defaults use_pty</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*Defaults[[:space:]]+(\[^#]+,[[:space:]]*)?use_pty' /etc/sudoers /etc/sudoers.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -2281,6 +2476,11 @@
           <t>edit the file /etc/sudoers or a file in /etc/sudoers.d/ with visudo -f and add the following line: and add the following line:  Defaults  logfile='&lt;path custom="" file="" log="" to=""&gt;'  Example  Defaults  logfile='/var/log/sudo.log'  Notes:  visudo edits the sudoers file in a safe fashion, analogous to vipw(8). visudo locks the sudoers file against multiple simultaneous edits, provides basic sanity checks, and checks or parse errors. If the sudoers file is currently being edited you will receive a message to try again later.</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*Defaults[[:space:]]+(\[^#]+,[[:space:]]*)?logfile=' /etc/sudoers /etc/sudoers.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -2326,6 +2526,11 @@
           <t>Install AIDE using the appropriate package manager or manual installation:  # apt install aide aide-common  Configure AIDE as appropriate for your environment. Consult the AIDE documentation for options. Initialize AIDE:  # aideinit  Notes:  The prelinking feature can interfere with AIDE because it alters binaries to speed up their start up times. Run prelink -ua to restore the binaries to their prelinked state, thus avoiding false positives from AIDE.</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s aide 2&gt;&amp;1</t>
@@ -2366,6 +2571,11 @@
           <t>Ensure filesystem integrity is regularly checked - crontab</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>/usr/bin/crontab -u root -l | /bin/grep aide</t>
@@ -2406,6 +2616,11 @@
           <t>Ensure filesystem integrity is regularly checked - /etc/cron.*</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>/bin/grep -r aide /etc/cron.* /etc/crontab</t>
@@ -2441,6 +2656,11 @@
           <t>Ensure filesystem integrity is regularly checked - is-enabled aidecheck.service</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled aidecheck.service</t>
@@ -2481,6 +2701,11 @@
           <t>Ensure filesystem integrity is regularly checked - is-enabled aidecheck.timer</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled aidecheck.timer</t>
@@ -2521,6 +2746,11 @@
           <t>Ensure filesystem integrity is regularly checked - status abled aidecheck.timer</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>/bin/systemctl status aidecheck.timer</t>
@@ -2566,6 +2796,11 @@
           <t>On 32 bit systems install a kernel with PAE support, no installation is required on 64 bit systems: If necessary configure your bootloader to load the new kernel and reboot the system. You may need to enable NX or XD support in your bios.  Notes:  Ensure your system supports the XD or NX bit and has PAE support before implementing this recommendation as this may prevent it from booting if these are not supported by your hardware.</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>/bin/journalctl | /bin/grep 'NX (Execute' 2&gt;&amp;1</t>
@@ -2611,6 +2846,11 @@
           <t>On 32 bit systems install a kernel with PAE support, no installation is required on 64 bit systems: If necessary configure your bootloader to load the new kernel and reboot the system. You may need to enable NX or XD support in your bios.  Notes:  Ensure your system supports the XD or NX bit and has PAE support before implementing this recommendation as this may prevent it from booting if these are not supported by your hardware.</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>/bin/echo -n "$(grep noexec[0-9]*=off /proc/cmdline; grep -E -i ' (pae|nx) ' /proc/cpuinfo; grep '\sNX\s.*\sprotection:\s' /var/log/dmesg | /bin/grep -v active)" | /usr/bin/awk '{print} END {if (NR != 0) print "NX Protection is not active" ; else print "NX Protection is not supported"}'</t>
@@ -2656,6 +2896,11 @@
           <t>Set the following parameter in /etc/sysctl.conf or a /etc/sysctl.d/* file:  kernel.randomize_va_space = 2  Run the following command to set the active kernel parameter:  # sysctl -w kernel.randomize_va_space=2</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>/sbin/sysctl kernel.randomize_va_space</t>
@@ -2701,6 +2946,11 @@
           <t>Set the following parameter in /etc/sysctl.conf or a /etc/sysctl.d/* file:  kernel.randomize_va_space = 2  Run the following command to set the active kernel parameter:  # sysctl -w kernel.randomize_va_space=2</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>/bin/grep -s -P '^[\s]*kernel\.randomize_va_space[\s]*=[\s]*2[\s]*$' /etc/sysctl.conf /etc/sysctl.d/* |/usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -2746,6 +2996,11 @@
           <t>Run the following command to restore binaries to normal:  # prelink -ua  Uninstall prelink using the appropriate package manager or manual installation:  # apt purge prelink</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s prelink 2&gt;&amp;1</t>
@@ -2791,6 +3046,11 @@
           <t>Add the following line to /etc/security/limits.conf or a /etc/security/limits.d/* file:  * hard core 0  Set the following parameter in /etc/sysctl.conf or a /etc/sysctl.d/* file:  fs.suid_dumpable = 0  Run the following command to set the active kernel parameter:  # sysctl -w fs.suid_dumpable=0  If systemd-coredump is installed: edit /etc/systemd/coredump.conf and add/modify the following lines:  Storage=none ProcessSizeMax=0  Run the command:  systemctl daemon-reload</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*\*[[:space:]]+hard[[:space:]]+core[[:space:]]+0[[:space:]]*$' /etc/security/limits.conf /etc/security/limits.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -2836,6 +3096,11 @@
           <t>Add the following line to /etc/security/limits.conf or a /etc/security/limits.d/* file:  * hard core 0  Set the following parameter in /etc/sysctl.conf or a /etc/sysctl.d/* file:  fs.suid_dumpable = 0  Run the following command to set the active kernel parameter:  # sysctl -w fs.suid_dumpable=0  If systemd-coredump is installed: edit /etc/systemd/coredump.conf and add/modify the following lines:  Storage=none ProcessSizeMax=0  Run the command:  systemctl daemon-reload</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>/sbin/sysctl fs.suid_dumpable</t>
@@ -2881,6 +3146,11 @@
           <t>Add the following line to /etc/security/limits.conf or a /etc/security/limits.d/* file:  * hard core 0  Set the following parameter in /etc/sysctl.conf or a /etc/sysctl.d/* file:  fs.suid_dumpable = 0  Run the following command to set the active kernel parameter:  # sysctl -w fs.suid_dumpable=0  If systemd-coredump is installed: edit /etc/systemd/coredump.conf and add/modify the following lines:  Storage=none ProcessSizeMax=0  Run the command:  systemctl daemon-reload</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>/usr/bin/grep -s -E '^[[:space:]]*fs\.suid_dumpable[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -2926,6 +3196,11 @@
           <t>Install Apparmor.  # apt install apparmor  # apt install apparmor-utils</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s apparmor | /bin/grep Status: 2&gt;&amp;1</t>
@@ -2971,6 +3246,11 @@
           <t>Run the following command to set all profiles to enforce mode:  # aa-enforce /etc/apparmor.d/*  OR Run the following command to set all profiles to complain mode:  # aa-complain /etc/apparmor.d/*  Any unconfined processes may need to have a profile created or activated for them and then be restarted.</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>/usr/sbin/apparmor_status</t>
@@ -3016,6 +3296,11 @@
           <t>Run the following command to set all profiles to enforce mode:  # aa-enforce /etc/apparmor.d/*  OR Run the following command to set all profiles to complain mode:  # aa-complain /etc/apparmor.d/*  Any unconfined processes may need to have a profile created or activated for them and then be restarted.</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>/usr/sbin/apparmor_status</t>
@@ -3061,6 +3346,11 @@
           <t>Use your package manager to update all packages on the system according to site policy. Run the following command to update all packages following local site policy guidance on applying updates and patches:  # apt upgrade OR # apt dist-upgrade  Notes:  Site policy may mandate a testing period before install onto production systems for available updates.  upgrade: upgrade is used to install the newest versions of all packages currently installed on the system from the sources enumerated in /etc/apt/sources.list. Packages currently installed with new versions available are retrieved and upgraded; under no circumstances are currently installed packages removed, or packages not already installed retrieved and installed. New versions of currently installed packages that cannot be upgraded without changing the install status of another package will be left at their current version. An update must be performed first so that apt knows that new versions of packages are available.  dist-upgrade: dist-upgrade in addition to performing the function of upgrade, also intelligently handles changing dependencies with new versions of packages; apt has a 'smart' conflict resolution system, and it will attempt to upgrade the most important packages at the expense of less important ones if necessary. So, dist-upgrade command may remove some packages. The /etc/apt/sources.list file contains a list of locations from which to retrieve desired package files. See also apt_preferences(5) for a mechanism for overriding the general settings for individual packages.</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>/usr/bin/apt-get -s upgrade</t>
@@ -3101,6 +3391,11 @@
           <t>Run the following commands to remove xinetd:  # apt purge xinetd  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s xinetd 2&gt;&amp;1</t>
@@ -3146,6 +3441,11 @@
           <t>Run the following command to uninstall openbsd-inetd:  apt purge openbsd-inetd</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s openbsd-inetd 2&gt;&amp;1</t>
@@ -3191,6 +3491,11 @@
           <t>Run the following command to enable systemd-timesyncd  # systemctl enable systemd-timesyncd.service  edit the file /etc/systemd/timesyncd.conf and add/modify the following lines:  NTP=0.debian.pool.ntp.org 1.debian.pool.ntp.org #Servers listed should be In Accordence With Local Policy  FallbackNTP=2.debian.pool.ntp.org 3.debian.pool.ntp.org #Servers listed should be In Accordence With Local Policy  RootDistanceMax=1 #should be In Accordence With Local Policy  Run the following commands to start systemd-timesyncd.service  # systemctl start systemd-timesyncd.service  # timedatectl set-ntp true  Notes:  some versions of systemd have been compiled without systemd-timesycnd. On these distributions, chrony or NTP should be used instead of systemd-timesycnd.  Not all options are avalible on all versions of systemd-timesyncd</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled systemd-timesyncd.service</t>
@@ -3236,6 +3541,11 @@
           <t>Run the following command to enable systemd-timesyncd  # systemctl enable systemd-timesyncd.service  edit the file /etc/systemd/timesyncd.conf and add/modify the following lines:  NTP=0.debian.pool.ntp.org 1.debian.pool.ntp.org #Servers listed should be In Accordence With Local Policy  FallbackNTP=2.debian.pool.ntp.org 3.debian.pool.ntp.org #Servers listed should be In Accordence With Local Policy  RootDistanceMax=1 #should be In Accordence With Local Policy  Run the following commands to start systemd-timesyncd.service  # systemctl start systemd-timesyncd.service  # timedatectl set-ntp true  Notes:  some versions of systemd have been compiled without systemd-timesycnd. On these distributions, chrony or NTP should be used instead of systemd-timesycnd.  Not all options are avalible on all versions of systemd-timesyncd</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>grep -e 'NTP=' /etc/systemd/timesyncd.conf</t>
@@ -3281,6 +3591,11 @@
           <t>Run the following command to enable systemd-timesyncd  # systemctl enable systemd-timesyncd.service  edit the file /etc/systemd/timesyncd.conf and add/modify the following lines:  NTP=0.debian.pool.ntp.org 1.debian.pool.ntp.org #Servers listed should be In Accordence With Local Policy  FallbackNTP=2.debian.pool.ntp.org 3.debian.pool.ntp.org #Servers listed should be In Accordence With Local Policy  RootDistanceMax=1 #should be In Accordence With Local Policy  Run the following commands to start systemd-timesyncd.service  # systemctl start systemd-timesyncd.service  # timedatectl set-ntp true  Notes:  some versions of systemd have been compiled without systemd-timesycnd. On these distributions, chrony or NTP should be used instead of systemd-timesycnd.  Not all options are avalible on all versions of systemd-timesyncd</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>grep -e 'FallbackNTP=' /etc/systemd/timesyncd.conf</t>
@@ -3326,6 +3641,11 @@
           <t>Add or edit server or pool lines to /etc/chrony.conf as appropriate:  server &lt;remote-server&gt;  Configure chrony to run as the chrony user by configuring the appropriate startup script for your distribution. Startup scripts are typically stored in /etc/init.d or /etc/systemd.</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>/usr/bin/ps -ef | /usr/bin/grep chronyd | /usr/bin/grep -v grep | /usr/bin/cut -d ' ' -f 1</t>
@@ -3366,6 +3686,11 @@
           <t>Remove the X Windows System packages:  apt purge xserver-xorg*  Impact:  Many Linux systems run applications which require a Java runtime. Some Linux Java packages have a dependency on specific X Windows xorg-x11-fonts. One workaround to avoid this dependency is to use the 'headless' Java packages for your specific Java runtime, if provided by your distribution.</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -l xserver-xorg*</t>
@@ -3411,6 +3736,11 @@
           <t>Run the following command to disable avahi-daemon:  # systemctl --now disable avahi-daemon  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled avahi-daemon | /usr/bin/awk '{print} END {if(NR==0) print "disabled" }'</t>
@@ -3456,6 +3786,11 @@
           <t>Run one of the following commands to disable cups :  # systemctl --now disable cups  Impact:  Disabling CUPS will prevent printing from the system, a common task for workstation systems.</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled cups | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3501,6 +3836,11 @@
           <t>Run one of the following commands to disable dhcpd:  # systemctl --now disable isc-dhcp-server  # systemctl --now disable isc-dhcp-server6</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled isc-dhcp-server | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3546,6 +3886,11 @@
           <t>Run one of the following commands to disable dhcpd:  # systemctl --now disable isc-dhcp-server  # systemctl --now disable isc-dhcp-server6</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled isc-dhcp-server6 | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3591,6 +3936,11 @@
           <t>Run one of the following commands to disable slapd:  # systemctl --now disable slapd</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled slapd | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3636,6 +3986,11 @@
           <t>Run the following commands to disable nfs and rpcbind:  # systemctl --now disable nfs-server  # systemctl --now disable rpcbind  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled nfs-server | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3681,6 +4036,11 @@
           <t>Run the following commands to disable nfs and rpcbind:  # systemctl --now disable nfs-server  # systemctl --now disable rpcbind  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled rpcbind | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3726,6 +4086,11 @@
           <t>Run the following commands to disable DNS server:  # systemctl --now disable bind9  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled bind9 | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3771,6 +4136,11 @@
           <t>Run the following command to disable vsftpd:  # systemctl --now disable vsftpd  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.  Additional FTP servers also exist and should be audited.</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled vsftpd | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3816,6 +4186,11 @@
           <t>Run the following command to disable apache:  # systemctl --now disable apache2  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.  Several httpd servers exist and can use other service names. apache, apache2, lighttpd, and nginx are example services that provide an HTTP server. These and other services should also be audited.</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled apache2 | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3861,6 +4236,11 @@
           <t>Run one of the following commands to disable dovecot :  # systemctl --now disable dovecot  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.  Several IMAP/POP3 servers exist and can use other service names. courier-imap and cyrus-imap are example services that provide a mail server. These and other services should also be audited.</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled dovecot | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3906,6 +4286,11 @@
           <t>Run the following command to disable Samba:  # systemctl --now disable smbd  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled smbd | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3951,6 +4336,11 @@
           <t>Run the following command to disable squid:  # systemctl --now disable squid  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.  On some distributions the squid service is known as squid3, not squid. Several HTTP proxy servers exist. These and other services should be checked.</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled squid | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -3996,6 +4386,11 @@
           <t>Run the following command to disable snmpd:  # systemctl --now disable snmpd  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled snmpd | /usr/bin/awk '{print} END { if(NR==0) print "disabled" }'</t>
@@ -4041,6 +4436,11 @@
           <t>Edit /etc/exim4/update-exim4.conf.conf and and or modify following lines to look like the lines below:  dc_eximconfig_configtype='local' dc_local_interfaces='127.0.0.1 ; ::1' dc_readhost='' dc_relay_domains='' dc_minimaldns='false' dc_relay_nets='' dc_smarthost='' dc_use_split_config='false' dc_hide_mailname='' dc_mailname_in_oh='true' dc_localdelivery='mail_spool'  Restart exim4:  # systemctl restart exim4  Notes:  This recommendation is designed around the exim4 mail server, depending on your environment you may have an alternative MTA installed such as sendmail. If this is the case consult the documentation for your installed MTA to configure the recommended state.</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>/usr/sbin/ss -lntu 2&gt;&amp;1 | /usr/bin/grep -E ':25\s' | /usr/bin/grep -E -v '\s(127.0.0.1|::1):25\s'</t>
@@ -4076,6 +4476,11 @@
           <t>Run the following command to disable rsync:  # systemctl --now disable rsync  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s rsync | /bin/grep -E '(Status:|not installed)'</t>
@@ -4121,6 +4526,11 @@
           <t>Run the following command to disable nis:  # systemctl --now disable nis  Notes:  Additional methods of disabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s nis | /bin/grep -E '(Status:|not installed)'</t>
@@ -4166,6 +4576,11 @@
           <t>Uninstall nis:  apt purge nis  Impact:  Many insecure service clients are used as troubleshooting tools and in testing environments. Uninstalling them can inhibit capability to test and troubleshoot. If they are required it is advisable to remove the clients after use to prevent accidental or intentional misuse.</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s nis 2&gt;&amp;1</t>
@@ -4211,6 +4626,11 @@
           <t>Uninstall rsh:  apt purge rsh-client  Impact:  Many insecure service clients are used as troubleshooting tools and in testing environments. Uninstalling them can inhibit capability to test and troubleshoot. If they are required it is advisable to remove the clients after use to prevent accidental or intentional misuse.</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s rsh-client 2&gt;&amp;1</t>
@@ -4256,6 +4676,11 @@
           <t>Uninstall talk:  apt purge talk  Impact:  Many insecure service clients are used as troubleshooting tools and in testing environments. Uninstalling them can inhibit capability to test and troubleshoot. If they are required it is advisable to remove the clients after use to prevent accidental or intentional misuse.</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s talk 2&gt;&amp;1</t>
@@ -4301,6 +4726,11 @@
           <t>Uninstall telnet:  # apt purge telnet  Impact:  Many insecure service clients are used as troubleshooting tools and in testing environments. Uninstalling them can inhibit capability to test and troubleshoot. If they are required it is advisable to remove the clients after use to prevent accidental or intentional misuse.</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s telnet 2&gt;&amp;1</t>
@@ -4346,6 +4776,11 @@
           <t>Uninstall ldap-utils:  # apt purge ldap-utils  Impact:  Removing the LDAP client will prevent or inhibit using LDAP for authentication in your environment.  Notes:  The openldap-clients package can go by other names on some distributions. openldap2-client, and ldap-utils are known alternative package names.</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s ldap-utils 2&gt;&amp;1</t>
@@ -4391,6 +4826,11 @@
           <t>Run the following command to disable any wireless interfaces:  # nmcli radio all off  Impact:  Many if not all laptop workstations and some desktop workstations will connect via wireless requiring these interfaces be enabled.</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>/usr/bin/nmcli radio wifi</t>
@@ -4436,6 +4876,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.send_redirects = 0 net.ipv4.conf.default.send_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.send_redirects=0 # sysctl -w net.ipv4.conf.default.send_redirects=0 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.default.send_redirects</t>
@@ -4481,6 +4926,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.send_redirects = 0 net.ipv4.conf.default.send_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.send_redirects=0 # sysctl -w net.ipv4.conf.default.send_redirects=0 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.default\.send_redirects[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -4526,6 +4976,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.send_redirects = 0 net.ipv4.conf.default.send_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.send_redirects=0 # sysctl -w net.ipv4.conf.default.send_redirects=0 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.all.send_redirects</t>
@@ -4571,6 +5026,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.send_redirects = 0 net.ipv4.conf.default.send_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.send_redirects=0 # sysctl -w net.ipv4.conf.default.send_redirects=0 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.all\.send_redirects[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -4616,6 +5076,11 @@
           <t>Run the following command to restore the default parameter and set the active kernel parameter:  # grep -Els '^\s*net\.ipv4\.ip_forward\s*=\s*1' /etc/sysctl.conf /etc/sysctl.d/*.conf /usr/lib/sysctl.d/*.conf /run/sysctl.d/*.conf | while read filename; do sed -ri 's/^\s*(net\.ipv4\.ip_forward\s*)(=)(\s*\S+\b).*$/# *REMOVED* \1/' $filename; done; sysctl -w net.ipv4.ip_forward=0; sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Run the following command to restore the default parameter and set the active kernel parameter:  # grep -Els '^\s*net\.ipv6\.conf\.all\.forwarding\s*=\s*1' /etc/sysctl.conf /etc/sysctl.d/*.conf /usr/lib/sysctl.d/*.conf /run/sysctl.d/*.conf | while read filename; do sed -ri 's/^\s*(net\.ipv6\.conf\.all\.forwarding\s*)(=)(\s*\S+\b).*$/# *REMOVED* \1/' $filename; done; sysctl -w net.ipv6.conf.all.forwarding=0; sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.ip_forward</t>
@@ -4661,6 +5126,11 @@
           <t>Run the following command to restore the default parameter and set the active kernel parameter:  # grep -Els '^\s*net\.ipv4\.ip_forward\s*=\s*1' /etc/sysctl.conf /etc/sysctl.d/*.conf /usr/lib/sysctl.d/*.conf /run/sysctl.d/*.conf | while read filename; do sed -ri 's/^\s*(net\.ipv4\.ip_forward\s*)(=)(\s*\S+\b).*$/# *REMOVED* \1/' $filename; done; sysctl -w net.ipv4.ip_forward=0; sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Run the following command to restore the default parameter and set the active kernel parameter:  # grep -Els '^\s*net\.ipv6\.conf\.all\.forwarding\s*=\s*1' /etc/sysctl.conf /etc/sysctl.d/*.conf /usr/lib/sysctl.d/*.conf /run/sysctl.d/*.conf | while read filename; do sed -ri 's/^\s*(net\.ipv6\.conf\.all\.forwarding\s*)(=)(\s*\S+\b).*$/# *REMOVED* \1/' $filename; done; sysctl -w net.ipv6.conf.all.forwarding=0; sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.ip_forward[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -4706,6 +5176,11 @@
           <t>Run the following command to restore the default parameter and set the active kernel parameter:  # grep -Els '^\s*net\.ipv4\.ip_forward\s*=\s*1' /etc/sysctl.conf /etc/sysctl.d/*.conf /usr/lib/sysctl.d/*.conf /run/sysctl.d/*.conf | while read filename; do sed -ri 's/^\s*(net\.ipv4\.ip_forward\s*)(=)(\s*\S+\b).*$/# *REMOVED* \1/' $filename; done; sysctl -w net.ipv4.ip_forward=0; sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Run the following command to restore the default parameter and set the active kernel parameter:  # grep -Els '^\s*net\.ipv6\.conf\.all\.forwarding\s*=\s*1' /etc/sysctl.conf /etc/sysctl.d/*.conf /usr/lib/sysctl.d/*.conf /run/sysctl.d/*.conf | while read filename; do sed -ri 's/^\s*(net\.ipv6\.conf\.all\.forwarding\s*)(=)(\s*\S+\b).*$/# *REMOVED* \1/' $filename; done; sysctl -w net.ipv6.conf.all.forwarding=0; sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv6.conf.all.forwarding</t>
@@ -4751,6 +5226,11 @@
           <t>Run the following command to restore the default parameter and set the active kernel parameter:  # grep -Els '^\s*net\.ipv4\.ip_forward\s*=\s*1' /etc/sysctl.conf /etc/sysctl.d/*.conf /usr/lib/sysctl.d/*.conf /run/sysctl.d/*.conf | while read filename; do sed -ri 's/^\s*(net\.ipv4\.ip_forward\s*)(=)(\s*\S+\b).*$/# *REMOVED* \1/' $filename; done; sysctl -w net.ipv4.ip_forward=0; sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Run the following command to restore the default parameter and set the active kernel parameter:  # grep -Els '^\s*net\.ipv6\.conf\.all\.forwarding\s*=\s*1' /etc/sysctl.conf /etc/sysctl.d/*.conf /usr/lib/sysctl.d/*.conf /run/sysctl.d/*.conf | while read filename; do sed -ri 's/^\s*(net\.ipv6\.conf\.all\.forwarding\s*)(=)(\s*\S+\b).*$/# *REMOVED* \1/' $filename; done; sysctl -w net.ipv6.conf.all.forwarding=0; sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv6\.conf\.all\.forwarding[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -4796,6 +5276,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_source_route = 0 net.ipv4.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_source_route=0 # sysctl -w net.ipv4.conf.default.accept_source_route=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_source_route = 0 net.ipv6.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_source_route=0 # sysctl -w net.ipv6.conf.default.accept_source_route=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.all.accept_source_route</t>
@@ -4841,6 +5326,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_source_route = 0 net.ipv4.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_source_route=0 # sysctl -w net.ipv4.conf.default.accept_source_route=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_source_route = 0 net.ipv6.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_source_route=0 # sysctl -w net.ipv6.conf.default.accept_source_route=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.default.accept_source_route</t>
@@ -4886,6 +5376,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_source_route = 0 net.ipv4.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_source_route=0 # sysctl -w net.ipv4.conf.default.accept_source_route=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_source_route = 0 net.ipv6.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_source_route=0 # sysctl -w net.ipv6.conf.default.accept_source_route=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.all\.accept_source_route[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -4931,6 +5426,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_source_route = 0 net.ipv4.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_source_route=0 # sysctl -w net.ipv4.conf.default.accept_source_route=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_source_route = 0 net.ipv6.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_source_route=0 # sysctl -w net.ipv6.conf.default.accept_source_route=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.default\.accept_source_route[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -4976,6 +5476,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_source_route = 0 net.ipv4.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_source_route=0 # sysctl -w net.ipv4.conf.default.accept_source_route=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_source_route = 0 net.ipv6.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_source_route=0 # sysctl -w net.ipv6.conf.default.accept_source_route=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv6.conf.all.accept_source_route</t>
@@ -5021,6 +5526,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_source_route = 0 net.ipv4.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_source_route=0 # sysctl -w net.ipv4.conf.default.accept_source_route=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_source_route = 0 net.ipv6.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_source_route=0 # sysctl -w net.ipv6.conf.default.accept_source_route=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv6.conf.default.accept_source_route</t>
@@ -5066,6 +5576,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_source_route = 0 net.ipv4.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_source_route=0 # sysctl -w net.ipv4.conf.default.accept_source_route=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_source_route = 0 net.ipv6.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_source_route=0 # sysctl -w net.ipv6.conf.default.accept_source_route=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv6\.conf\.all\.accept_source_route[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -5111,6 +5626,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_source_route = 0 net.ipv4.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_source_route=0 # sysctl -w net.ipv4.conf.default.accept_source_route=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_source_route = 0 net.ipv6.conf.default.accept_source_route = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_source_route=0 # sysctl -w net.ipv6.conf.default.accept_source_route=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv6\.conf\.default\.accept_source_route[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -5156,6 +5676,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_redirects = 0 net.ipv4.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_redirects=0 # sysctl -w net.ipv4.conf.default.accept_redirects=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_redirects = 0 net.ipv6.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_redirects=0 # sysctl -w net.ipv6.conf.default.accept_redirects=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.all.accept_redirects</t>
@@ -5201,6 +5726,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_redirects = 0 net.ipv4.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_redirects=0 # sysctl -w net.ipv4.conf.default.accept_redirects=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_redirects = 0 net.ipv6.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_redirects=0 # sysctl -w net.ipv6.conf.default.accept_redirects=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.default.accept_redirects</t>
@@ -5246,6 +5776,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_redirects = 0 net.ipv4.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_redirects=0 # sysctl -w net.ipv4.conf.default.accept_redirects=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_redirects = 0 net.ipv6.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_redirects=0 # sysctl -w net.ipv6.conf.default.accept_redirects=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.all\.accept_redirects[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass"; else print "fail"}'</t>
@@ -5291,6 +5826,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_redirects = 0 net.ipv4.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_redirects=0 # sysctl -w net.ipv4.conf.default.accept_redirects=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_redirects = 0 net.ipv6.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_redirects=0 # sysctl -w net.ipv6.conf.default.accept_redirects=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.default\.accept_redirects[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass"; else print "fail"}'</t>
@@ -5336,6 +5876,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_redirects = 0 net.ipv4.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_redirects=0 # sysctl -w net.ipv4.conf.default.accept_redirects=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_redirects = 0 net.ipv6.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_redirects=0 # sysctl -w net.ipv6.conf.default.accept_redirects=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv6.conf.default.accept_redirects</t>
@@ -5381,6 +5926,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_redirects = 0 net.ipv4.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_redirects=0 # sysctl -w net.ipv4.conf.default.accept_redirects=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_redirects = 0 net.ipv6.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_redirects=0 # sysctl -w net.ipv6.conf.default.accept_redirects=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv6\.conf\.all\.accept_redirects[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass"; else print "fail"}'</t>
@@ -5426,6 +5976,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.accept_redirects = 0 net.ipv4.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.accept_redirects=0 # sysctl -w net.ipv4.conf.default.accept_redirects=0 # sysctl -w net.ipv4.route.flush=1  IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_redirects = 0 net.ipv6.conf.default.accept_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_redirects=0 # sysctl -w net.ipv6.conf.default.accept_redirects=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv6\.conf\.default\.accept_redirects[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass"; else print "fail"}'</t>
@@ -5471,6 +6026,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.secure_redirects = 0 net.ipv4.conf.default.secure_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.secure_redirects=0 # sysctl -w net.ipv4.conf.default.secure_redirects=0 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.all.secure_redirects</t>
@@ -5516,6 +6076,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.secure_redirects = 0 net.ipv4.conf.default.secure_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.secure_redirects=0 # sysctl -w net.ipv4.conf.default.secure_redirects=0 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.default.secure_redirects</t>
@@ -5561,6 +6126,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.secure_redirects = 0 net.ipv4.conf.default.secure_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.secure_redirects=0 # sysctl -w net.ipv4.conf.default.secure_redirects=0 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.all\.secure_redirects[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass"; else print "fail"}'</t>
@@ -5606,6 +6176,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.secure_redirects = 0 net.ipv4.conf.default.secure_redirects = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.secure_redirects=0 # sysctl -w net.ipv4.conf.default.secure_redirects=0 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.default\.secure_redirects[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -5651,6 +6226,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.log_martians = 1 net.ipv4.conf.default.log_martians = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.log_martians=1 # sysctl -w net.ipv4.conf.default.log_martians=1 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.all.log_martians</t>
@@ -5696,6 +6276,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.log_martians = 1 net.ipv4.conf.default.log_martians = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.log_martians=1 # sysctl -w net.ipv4.conf.default.log_martians=1 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.default.log_martians</t>
@@ -5741,6 +6326,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.log_martians = 1 net.ipv4.conf.default.log_martians = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.log_martians=1 # sysctl -w net.ipv4.conf.default.log_martians=1 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.all\.log_martians[[:space:]]*=[[:space:]]*1[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass"; else print "fail"}'</t>
@@ -5786,6 +6376,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.log_martians = 1 net.ipv4.conf.default.log_martians = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.log_martians=1 # sysctl -w net.ipv4.conf.default.log_martians=1 # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.default\.log_martians[[:space:]]*=[[:space:]]*1[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass"; else print "fail"}'</t>
@@ -5831,6 +6426,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.icmp_echo_ignore_broadcasts = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.icmp_echo_ignore_broadcasts=1  # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.icmp_echo_ignore_broadcasts</t>
@@ -5876,6 +6476,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.icmp_echo_ignore_broadcasts = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.icmp_echo_ignore_broadcasts=1  # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.icmp_echo_ignore_broadcasts[[:space:]]*=[[:space:]]*1[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* |/usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -5921,6 +6526,11 @@
           <t>Set the following parameter in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.icmp_ignore_bogus_error_responses = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.icmp_ignore_bogus_error_responses=1  # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.icmp_ignore_bogus_error_responses</t>
@@ -5966,6 +6576,11 @@
           <t>Set the following parameter in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.icmp_ignore_bogus_error_responses = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.icmp_ignore_bogus_error_responses=1  # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.icmp_ignore_bogus_error_responses[[:space:]]*=[[:space:]]*1[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass"; else print "fail"}'</t>
@@ -6011,6 +6626,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.rp_filter = 1 net.ipv4.conf.default.rp_filter = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.rp_filter=1  # sysctl -w net.ipv4.conf.default.rp_filter=1  # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.all.rp_filter</t>
@@ -6056,6 +6676,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.rp_filter = 1 net.ipv4.conf.default.rp_filter = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.rp_filter=1  # sysctl -w net.ipv4.conf.default.rp_filter=1  # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.conf.default.rp_filter</t>
@@ -6101,6 +6726,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.rp_filter = 1 net.ipv4.conf.default.rp_filter = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.rp_filter=1  # sysctl -w net.ipv4.conf.default.rp_filter=1  # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.all\.rp_filter[[:space:]]*=[[:space:]]*1[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -6146,6 +6776,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.conf.all.rp_filter = 1 net.ipv4.conf.default.rp_filter = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.conf.all.rp_filter=1  # sysctl -w net.ipv4.conf.default.rp_filter=1  # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.conf\.default\.rp_filter[[:space:]]*=[[:space:]]*1[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -6191,6 +6826,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.tcp_syncookies = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.tcp_syncookies=1  # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv4.tcp_syncookies</t>
@@ -6236,6 +6876,11 @@
           <t>Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv4.tcp_syncookies = 1  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv4.tcp_syncookies=1  # sysctl -w net.ipv4.route.flush=1</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv4\.tcp_syncookies[[:space:]]*=[[:space:]]*1[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -6281,6 +6926,11 @@
           <t>IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_ra = 0 net.ipv6.conf.default.accept_ra = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_ra=0 # sysctl -w net.ipv6.conf.default.accept_ra=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv6.conf.all.accept_ra</t>
@@ -6326,6 +6976,11 @@
           <t>IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_ra = 0 net.ipv6.conf.default.accept_ra = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_ra=0 # sysctl -w net.ipv6.conf.default.accept_ra=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>/sbin/sysctl net.ipv6.conf.default.accept_ra</t>
@@ -6371,6 +7026,11 @@
           <t>IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_ra = 0 net.ipv6.conf.default.accept_ra = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_ra=0 # sysctl -w net.ipv6.conf.default.accept_ra=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv6\.conf\.all\.accept_ra[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* |/usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -6416,6 +7076,11 @@
           <t>IF IPv6 is enabled: Set the following parameters in /etc/sysctl.conf or a /etc/sysctl.d/* file:  net.ipv6.conf.all.accept_ra = 0 net.ipv6.conf.default.accept_ra = 0  Run the following commands to set the active kernel parameters:  # sysctl -w net.ipv6.conf.all.accept_ra=0 # sysctl -w net.ipv6.conf.default.accept_ra=0 # sysctl -w net.ipv6.route.flush=1</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>/bin/grep -s -E '^[[:space:]]*net\.ipv6\.conf\.default\.accept_ra[[:space:]]*=[[:space:]]*0[[:space:]]*$' /etc/sysctl.conf /etc/sysctl.d/* |/usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -6461,6 +7126,11 @@
           <t>Run the following command to enable ufw:  # ufw enable  Impact:  Changing firewall settings while connected over network can result in being locked out of the system.</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>/usr/bin/systemctl is-enabled ufw</t>
@@ -6506,6 +7176,11 @@
           <t>Run the following command to enable ufw:  # ufw enable  Impact:  Changing firewall settings while connected over network can result in being locked out of the system.</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>/usr/sbin/ufw status</t>
@@ -6551,6 +7226,11 @@
           <t>Run the following commands to implement a default deny policy:  # ufw default deny incoming  # ufw default deny outgoing  # ufw default deny routed</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>/usr/sbin/ufw status verbose</t>
@@ -6596,6 +7276,11 @@
           <t>Run the following commands to implement the loopback rules:  # ufw allow in on lo  # ufw allow out from lo  # sudo ufw deny in from 127.0.0.0/8  # sudo ufw deny in from ::1</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>/usr/sbin/ufw status verbose</t>
@@ -6641,6 +7326,11 @@
           <t>Run the following commands to implement the loopback rules:  # ufw allow in on lo  # ufw allow out from lo  # sudo ufw deny in from 127.0.0.0/8  # sudo ufw deny in from ::1</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>/usr/sbin/ufw status verbose</t>
@@ -6686,6 +7376,11 @@
           <t>Run the following commands to implement the loopback rules:  # ufw allow in on lo  # ufw allow out from lo  # sudo ufw deny in from 127.0.0.0/8  # sudo ufw deny in from ::1</t>
         </is>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>/usr/sbin/ufw status verbose</t>
@@ -6731,6 +7426,11 @@
           <t>Run the following commands to implement the loopback rules:  # ufw allow in on lo  # ufw allow out from lo  # sudo ufw deny in from 127.0.0.0/8  # sudo ufw deny in from ::1</t>
         </is>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>/usr/sbin/ufw status verbose</t>
@@ -6776,6 +7476,11 @@
           <t>Run the following commands to implement the loopback rules:  # ufw allow in on lo  # ufw allow out from lo  # sudo ufw deny in from 127.0.0.0/8  # sudo ufw deny in from ::1</t>
         </is>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>/usr/sbin/ufw status verbose</t>
@@ -6821,6 +7526,11 @@
           <t>Run the following commands to implement the loopback rules:  # ufw allow in on lo  # ufw allow out from lo  # sudo ufw deny in from 127.0.0.0/8  # sudo ufw deny in from ::1</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>/usr/sbin/ufw status verbose</t>
@@ -6866,6 +7576,11 @@
           <t>Configure ufw in accordance with site policy. The following commands will implement a policy to allow all outbound connections on all interfaces:  # ufw allow out on all  Notes:  Changing firewall settings while connected over network can result in being locked out of the system. Unlike iptables, when a new outbound rule is added, ufw automatically takes care of associated established connections, so no rules for the latter kind are required.</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>/usr/sbin/ufw status numbered</t>
@@ -6906,6 +7621,11 @@
           <t>For each port identified in the audit which does not have a firewall rule establish a proper rule for accepting inbound connections:  # ufw allow in &lt;port&gt;/&lt;tcp or="" protocol="" udp=""&gt;  Notes:  Changing firewall settings while connected over network can result in being locked out of the system.  The remediation command opens up the port to traffic from all sources. Consult ufw documentation and set any restrictions in compliance with site policy.</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>/bin/ss -4tuln; /usr/sbin/ufw status</t>
@@ -6946,6 +7666,11 @@
           <t>Run the following commands to flush iptables: For iptables:  # iptables -F  For ip6tables  # ip6tables -F</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>/usr/sbin/iptables -L</t>
@@ -6986,6 +7711,11 @@
           <t>Run the following commands to flush iptables: For iptables:  # iptables -F  For ip6tables  # ip6tables -F</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>/usr/sbin/iptables -L</t>
@@ -7036,8 +7766,10 @@
           <t>root</t>
         </is>
       </c>
-      <c r="H149" t="n">
-        <v>177</v>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -7104,8 +7836,10 @@
           <t>root</t>
         </is>
       </c>
-      <c r="H150" t="n">
-        <v>177</v>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -7172,8 +7906,10 @@
           <t>root</t>
         </is>
       </c>
-      <c r="H151" t="n">
-        <v>177</v>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -7240,8 +7976,10 @@
           <t>root</t>
         </is>
       </c>
-      <c r="H152" t="n">
-        <v>177</v>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -7298,6 +8036,11 @@
           <t>Run the following commands to implement the loopback rules:  # nft add rule inet filter input iif lo accept  # nft create rule inet filter input ip saddr 127.0.0.0/8 counter drop  IF IPv6 is enabled on the system, run the following command to implement the IPv6 loopback rule:  # nft add rule inet filter input ip6 saddr ::1 counter drop</t>
         </is>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>/usr/sbin/nft list ruleset | /usr/bin/awk '/hook input/,/}/' | /bin/grep 'iif "lo" accept'</t>
@@ -7338,6 +8081,11 @@
           <t>Run the following commands to implement the loopback rules:  # nft add rule inet filter input iif lo accept  # nft create rule inet filter input ip saddr 127.0.0.0/8 counter drop  IF IPv6 is enabled on the system, run the following command to implement the IPv6 loopback rule:  # nft add rule inet filter input ip6 saddr ::1 counter drop</t>
         </is>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>/usr/sbin/nft list ruleset | /usr/bin/awk '/hook input/,/}/' | /bin/grep 'ip saddr'</t>
@@ -7378,6 +8126,11 @@
           <t>Run the following commands to implement the loopback rules:  # nft add rule inet filter input iif lo accept  # nft create rule inet filter input ip saddr 127.0.0.0/8 counter drop  IF IPv6 is enabled on the system, run the following command to implement the IPv6 loopback rule:  # nft add rule inet filter input ip6 saddr ::1 counter drop</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>/usr/sbin/nft list ruleset | /usr/bin/awk '/hook input/,/}/' | /bin/grep 'ip6 saddr'</t>
@@ -7418,6 +8171,11 @@
           <t>Configure nftables in accordance with site policy. The following commands will implement a policy to allow all outbound connections and all established connections:  # nft add rule inet filter input ip protocol tcp ct state established accept  # nft add rule inet filter input ip protocol udp ct state established accept  # nft add rule inet filter input ip protocol icmp ct state established accept  # nft add rule inet filter output ip protocol tcp ct state new,related,established accept  # nft add rule inet filter output ip protocol udp ct state new,related,established accept  # nft add rule inet filter output ip protocol icmp ct state new,related,established accept</t>
         </is>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>/usr/sbin/nft list ruleset</t>
@@ -7463,8 +8221,10 @@
           <t>root</t>
         </is>
       </c>
-      <c r="H157" t="n">
-        <v>177</v>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
@@ -7531,8 +8291,10 @@
           <t>root</t>
         </is>
       </c>
-      <c r="H158" t="n">
-        <v>177</v>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -7599,8 +8361,10 @@
           <t>root</t>
         </is>
       </c>
-      <c r="H159" t="n">
-        <v>177</v>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -7657,6 +8421,11 @@
           <t>Run the following command to enable the nftables service:  # systemctl enable nftables</t>
         </is>
       </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled nftables</t>
@@ -7702,6 +8471,11 @@
           <t>Edit the /etc/nftables.conf file and un-comment or add a line with include &lt;absolute file="" nftables="" path="" rules="" to=""&gt; for each nftables file you want included in the nftables ruleset on boot example:  # vi /etc/nftables.conf  Add the line:  include '/etc/nftables.rules'</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>/usr/bin/cat /etc/nftables.conf</t>
@@ -7747,6 +8521,11 @@
           <t>Run the following commands to implement a default DROP policy:  # ip6tables -P INPUT DROP # ip6tables -P OUTPUT DROP # ip6tables -P FORWARD DROP  Notes:  Changing firewall settings while connected over network can result in being locked out of the system.  Remediation will only affect the active system firewall, be sure to configure the default policy in your firewall management to apply on boot as well.</t>
         </is>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>/sbin/ip6tables --list | /bin/grep 'Chain INPUT'</t>
@@ -7792,6 +8571,11 @@
           <t>Run the following commands to implement a default DROP policy:  # ip6tables -P INPUT DROP # ip6tables -P OUTPUT DROP # ip6tables -P FORWARD DROP  Notes:  Changing firewall settings while connected over network can result in being locked out of the system.  Remediation will only affect the active system firewall, be sure to configure the default policy in your firewall management to apply on boot as well.</t>
         </is>
       </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>/sbin/ip6tables --list | /bin/grep 'Chain FORWARD'</t>
@@ -7837,6 +8621,11 @@
           <t>Run the following commands to implement a default DROP policy:  # ip6tables -P INPUT DROP # ip6tables -P OUTPUT DROP # ip6tables -P FORWARD DROP  Notes:  Changing firewall settings while connected over network can result in being locked out of the system.  Remediation will only affect the active system firewall, be sure to configure the default policy in your firewall management to apply on boot as well.</t>
         </is>
       </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>/sbin/ip6tables --list | /bin/grep 'Chain OUTPUT'</t>
@@ -7882,6 +8671,11 @@
           <t>Run the following commands to implement the loopback rules:  # ip6tables -A INPUT -i lo -j ACCEPT # ip6tables -A OUTPUT -o lo -j ACCEPT # ip6tables -A INPUT -s ::1 -j DROP  Notes:  Changing firewall settings while connected over network can result in being locked out of the system.  Remediation will only affect the active system firewall, be sure to configure the default policy in your firewall management to apply on boot as well.</t>
         </is>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>/usr/sbin/ip6tables -L INPUT -v -n | /usr/bin/awk '{ a[$3":"$4":"$5":"$6":"$7":"$8] = NR; print } END { if (a["ACCEPT:all:lo:*:::/0:::/0"] &gt; 0 &amp;&amp; a["ACCEPT:all:lo:*:::/0:::/0"] &amp;lt; a["DROP:all:*:*:::1:::/0"]) { print "pass" } else { print "fail" } }'</t>
@@ -7894,7 +8688,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>awk: 1: unexpected character '&amp;'awk: line 1: extra ')'awk: line 1: syntax error at or near {awk: line 1: syntax error at or near elseawk: line 1: syntax error at or near }/tmp/test_kali.sh: line 328: /usr/sbin/ip6tables: No such file or directory</t>
+          <t>/tmp/test_kali.sh: line 328: /usr/sbin/ip6tables: No such file or directoryawk: 1: unexpected character '&amp;'awk: line 1: extra ')'awk: line 1: syntax error at or near {awk: line 1: syntax error at or near elseawk: line 1: syntax error at or near }</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
@@ -7927,6 +8721,11 @@
           <t>Run the following commands to implement the loopback rules:  # ip6tables -A INPUT -i lo -j ACCEPT # ip6tables -A OUTPUT -o lo -j ACCEPT # ip6tables -A INPUT -s ::1 -j DROP  Notes:  Changing firewall settings while connected over network can result in being locked out of the system.  Remediation will only affect the active system firewall, be sure to configure the default policy in your firewall management to apply on boot as well.</t>
         </is>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>/usr/sbin/ip6tables -L OUTPUT -v -n | /usr/bin/awk '{ a[$3":"$4":"$5":"$6":"$7":"$8] = NR; print } END { if (a["ACCEPT:all:*:lo:::/0:::/0"] &gt; 0) { print "pass" } else { print "fail" } }'</t>
@@ -7972,6 +8771,11 @@
           <t>Configure iptables in accordance with site policy. The following commands will implement a policy to allow all outbound connections and all established connections:  # ip6tables -A OUTPUT -p tcp -m state --state NEW,ESTABLISHED -j ACCEPT # ip6tables -A OUTPUT -p udp -m state --state NEW,ESTABLISHED -j ACCEPT # ip6tables -A OUTPUT -p icmp -m state --state NEW,ESTABLISHED -j ACCEPT # ip6tables -A INPUT -p tcp -m state --state ESTABLISHED -j ACCEPT # ip6tables -A INPUT -p udp -m state --state ESTABLISHED -j ACCEPT # ip6tables -A INPUT -p icmp -m state --state ESTABLISHED -j ACCEPT  Notes:  Changing firewall settings while connected over network can result in being locked out of the system.  Remediation will only affect the active system firewall, be sure to configure the default policy in your firewall management to apply on boot as well.</t>
         </is>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>/sbin/ip6tables -L -v -n</t>
@@ -8012,6 +8816,11 @@
           <t>For each port identified in the audit which does not have a firewall rule establish a proper rule for accepting inbound connections:  # ip6tables -A INPUT -p &lt;protocol&gt; --dport &lt;port&gt; -m state --state NEW -j ACCEPT  Notes:  Changing firewall settings while connected over network can result in being locked out of the system.  Remediation will only affect the active system firewall, be sure to configure the default policy in your firewall management to apply on boot as well.  The remediation command opens up the port to traffic from all sources. Consult iptables documentation and set any restrictions in compliance with site policy.</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>/usr/bin/ss -ln; /sbin/ip6tables -L INPUT -v -n</t>
@@ -8019,7 +8828,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>Netid State  Recv-Q Send-Q                              Local Address:Port        Peer Address:PortProcessnl    UNCONN 0      0                                               0:1305                    *nl    UNCONN 0      0                                               0:1412                    *nl    UNCONN 0      0                                               0:498                     *nl    UNCONN 0      0                                               0:1720                    *nl    UNCONN 0      0                                               0:1599                    *nl    UNCONN 0      0                                               0:1304                    *nl    UNCONN 0      0                                               0:1338                    *nl    UNCONN 0      0                                               0:464                     *nl    UNCONN 0      0                                               0:1299                    *nl    UNCONN 0      0                                               0:0                       *nl    UNCONN 0      0                                               0:1720                    *nl    UNCONN 0      0                                               0:1412                    *nl    UNCONN 0      0                                               0:1599                    *nl    UNCONN 0      0                                               0:1338                    *nl    UNCONN 0      0                                               0:1304                    *nl    UNCONN 0      0                                               0:1305                    *nl    UNCONN 0      0                                               0:1299                    *nl    UNCONN 0      0                                               0:498                     *nl    UNCONN 0      0                                               0:464                     *nl    UNCONN 4352   0                                               4:24308                   *nl    UNCONN 768    0                                               4:0                       *nl    UNCONN 0      0                                               7:0                       *nl    UNCONN 0      0                                               9:-1308913300             *nl    UNCONN 0      0                                               9:1                       *nl    UNCONN 0      0                                               9:0                       *nl    UNCONN 0      0                                               9:1                       *nl    UNCONN 0      0                                              10:0                       *nl    UNCONN 0      0                                              11:0                       *nl    UNCONN 0      0                                              12:0                       *nl    UNCONN 0      0                                              15:-1640591589             *nl    UNCONN 0      0                                              15:1089                    *nl    UNCONN 0      0                                              15:-1600254023             *nl    UNCONN 0      0                                              15:-1481408079             *nl    UNCONN 0      0                                              15:498                     *nl    UNCONN 0      0                                              15:-1032835744             *nl    UNCONN 0      0                                              15:-536882272              *nl    UNCONN 0      0                                              15:1361                    *nl    UNCONN 0      0                                              15:484                     *nl    UNCONN 0      0                                              15:-1775953004             *nl    UNCONN 0      0                                              15:-1174616266             *nl    UNCONN 0      0                                              15:576                     *nl    UNCONN 0      0                                              15:527                     *nl    UNCONN 0      0                                              15:1350                    *nl    UNCONN 0      0                                              15:1389                    *nl    UNCONN 0      0                                              15:486                     *nl    UNCONN 0      0                                              15:-517192903              *nl    UNCONN 0      0                                              15:491                     *nl    UNCONN 0      0                                              15:-1387878743             *nl    UNCONN 0      0                                              15:1228                    *nl    UNCONN 0      0                                              15:-1904375485             *nl    UNCONN 0      0                                              15:-393413277              *nl    UNCONN 0      0                                              15:0                       *nl    UNCONN 0      0                                              15:773                     *nl    UNCONN 0      0                                              15:-685180972              *nl    UNCONN 0      0                                              15:-578754795              *nl    UNCONN 0      0                                              15:801                     *nl    UNCONN 0      0                                              15:480                     *nl    UNCONN 0      0                                              15:1697                    *nl    UNCONN 0      0                                              15:1                       *nl    UNCONN 0      0                                              15:-931232786              *nl    UNCONN 0      0                                              15:-1481408079             *nl    UNCONN 0      0                                              15:1697                    *nl    UNCONN 0      0                                              15:1389                    *nl    UNCONN 0      0                                              15:1361                    *nl    UNCONN 0      0                                              15:1350                    *nl    UNCONN 0      0                                              15:-1775953004             *nl    UNCONN 0      0                                              15:-1174616266             *nl    UNCONN 0      0                                              15:1228                    *nl    UNCONN 0      0                                              15:-393413277              *nl    UNCONN 0      0                                              15:1089                    *nl    UNCONN 0      0                                              15:1064                    *nl    UNCONN 0      0                                              15:-1904375485             *nl    UNCONN 0      0                                              15:-1600254023             *nl    UNCONN 0      0                                              15:-1640591589             *nl    UNCONN 0      0                                              15:801                     *nl    UNCONN 0      0                                              15:-931232786              *nl    UNCONN 0      0                                              15:773                     *nl    UNCONN 0      0                                              15:-578754795              *nl    UNCONN 0      0                                              15:-1387878743             *nl    UNCONN 0      0                                              15:576                     *nl    UNCONN 0      0                                              15:527                     *nl    UNCONN 0      0                                              15:498                     *nl    UNCONN 0      0                                              15:480                     *nl    UNCONN 0      0                                              15:-685180972              *nl    UNCONN 0      0                                              15:-1032835744             *nl    UNCONN 0      0                                              15:-517192903              *nl    UNCONN 0      0                                              15:486                     *nl    UNCONN 0      0                                              15:491                     *nl    UNCONN 0      0                                              15:484                     *nl    UNCONN 0      0                                              15:-536882272              *nl    UNCONN 0      0                                              15:1                       *nl    UNCONN 0      0                                              16:0                       *nl    UNCONN 0      0                                              16:-108442583              *nl    UNCONN 0      0                                              16:498                     *nl    UNCONN 0      0                                              16:-108442583              *nl    UNCONN 0      0                                              18:0                       *p_dgr UNCONN 0      0                                          [2054]:enp0s8                  *u_str LISTEN 0      4096                          /tmp/.ICE-unix/1209 18459                  * 0u_dgr UNCONN 0      0                                               * 14865                  * 0u_dgr UNCONN 0      0                   /run/user/1000/systemd/notify 17936                  * 0u_str LISTEN 0      4096               /run/user/1000/systemd/private 17939                  * 0u_str LISTEN 0      4096                           /run/user/1000/bus 17951                  * 0u_str LISTEN 0      4096               /run/user/1000/gnupg/S.dirmngr 17958                  * 0u_str LISTEN 0      5                          /run/user/1000/gcr/ssh 17960                  * 0u_str LISTEN 0      5                  /run/user/1000/keyring/control 17962                  * 0u_str LISTEN 0      4096     /run/user/1000/gnupg/S.gpg-agent.browser 17964                  * 0u_str LISTEN 0      4096       /run/user/1000/gnupg/S.gpg-agent.extra 17966                  * 0u_str LISTEN 0      4096         /run/user/1000/gnupg/S.gpg-agent.ssh 17968                  * 0u_str LISTEN 0      4096             /run/user/1000/gnupg/S.gpg-agent 17970                  * 0u_str LISTEN 0      4096                  /run/user/1000/pulse/native 17972                  * 0u_str LISTEN 0      4096                    /run/user/1000/pipewire-0 17974                  * 0u_str LISTEN 0      4096             /run/user/1000/pk-debconf-socket 17976                  * 0u_dgr UNCONN 0      0                                               * 19523                  * 0u_str LISTEN 0      4096                         /run/systemd/private 13113                  * 0u_str LISTEN 0      4096   /run/systemd/userdb/io.systemd.DynamicUser 13115                  * 0u_str LISTEN 0      1                               /tmp/.X11-unix/X0 18705                  * 0u_str LISTEN 0      4096            /run/systemd/io.system.ManagedOOM 13116                  * 0u_str LISTEN 0      1                               /tmp/.X11-unix/X1 18707                  * 0u_str LISTEN 0      128                 /run/user/1000/keyring/pkcs11 18155                  * 0u_dgr UNCONN 0      0                                               * 19223                  * 0u_str LISTEN 0      4096                   /run/systemd/fsck.progress 13129                  * 0u_str LISTEN 0      4096                  /run/systemd/journal/stdout 13137                  * 0u_seq LISTEN 0      4096                            /run/udev/control 13139                  * 0u_str LISTEN 0      128                  /run/user/1000/openssh_agent 18439                  * 0u_str LISTEN 0      10                     /run/user/1000/keyring/ssh 18520                  * 0u_str LISTEN 0      4096      /run/systemd/journal/io.systemd.journal 13589                  * 0u_str LISTEN 0      4096                    /run/user/1000/at-spi/bus 18608                  * 0u_str LISTEN 0      128                      /run/user/1000/wayland-0 18708                  * 0u_dgr UNCONN 0      0                                               * 18849                  * 0u_dgr UNCONN 0      0                                               * 18617                  * 0u_str LISTEN 0      4096                     /run/avahi-daemon/socket 14587                  * 0u_dgr UNCONN 0      0                                               * 15077                  * 0u_str LISTEN 0      4096                          /run/cups/cups.sock 14591                  * 0u_str LISTEN 0      4096                  /run/dbus/system_bus_socket 14596                  * 0u_dgr UNCONN 0      0                                               * 19796                  * 0u_dgr UNCONN 0      0                                               * 18818                  * 0u_dgr UNCONN 0      0                                               * 18498                  * 0u_dgr UNCONN 0      0                                               * 18157                  * 0u_str LISTEN 0      128                   /run/user/1000/keyring/.ssh 26137                  * 0u_dgr UNCONN 0      0                                               * 16866                  * 0u_dgr UNCONN 0      0                                               * 18098                  * 0u_dgr UNCONN 0      0                                               * 19973                  * 0u_dgr UNCONN 0      0                                               * 18120                  * 0u_dgr UNCONN 0      0                                               * 19191                  * 0u_str LISTEN 0      10                            @/tmp/dbus-m3Tmj6OX 15689                  * 0u_str LISTEN 0      4096                         @/tmp/.ICE-unix/1209 18458                  * 0u_str LISTEN 0      1                              @/tmp/.X11-unix/X0 18704                  * 0u_str LISTEN 0      1                              @/tmp/.X11-unix/X1 18706                  * 0u_str LISTEN 0      10      @/home/vboxuser/.cache/ibus/dbus-EYCYpudX 19470                  * 0u_str LISTEN 0      10                            @/tmp/dbus-y0FIJaci 15690                  * 0icmp6 UNCONN 0      0                                               *:58                     *:*udp   UNCONN 0      0                                         0.0.0.0:631              0.0.0.0:*udp   UNCONN 0      0                                         0.0.0.0:49060            0.0.0.0:*udp   UNCONN 0      0                                         0.0.0.0:5353             0.0.0.0:*udp   UNCONN 0      0                                            [::]:50832               [::]:*udp   UNCONN 0      0                                            [::]:5353                [::]:*tcp   LISTEN 0      128                                       0.0.0.0:22               0.0.0.0:*tcp   LISTEN 0      128                                     127.0.0.1:631              0.0.0.0:*tcp   LISTEN 0      128                                         [::1]:631                 [::]:*tcp   LISTEN 0      128                                          [::]:22                  [::]:*/tmp/test_kali.sh: line 334: /sbin/ip6tables: No such file or directory</t>
+          <t>Netid State  Recv-Q Send-Q                              Local Address:Port        Peer Address:PortProcessnl    UNCONN 0      0                                               0:1305                    *nl    UNCONN 0      0                                               0:1412                    *nl    UNCONN 0      0                                               0:498                     *nl    UNCONN 0      0                                               0:1720                    *nl    UNCONN 0      0                                               0:1599                    *nl    UNCONN 0      0                                               0:1304                    *nl    UNCONN 0      0                                               0:25750                   *nl    UNCONN 0      0                                               0:1338                    *nl    UNCONN 0      0                                               0:464                     *nl    UNCONN 0      0                                               0:1299                    *nl    UNCONN 0      0                                               0:0                       *nl    UNCONN 0      0                                               0:25750                   *nl    UNCONN 0      0                                               0:1720                    *nl    UNCONN 0      0                                               0:1412                    *nl    UNCONN 0      0                                               0:1599                    *nl    UNCONN 0      0                                               0:1338                    *nl    UNCONN 0      0                                               0:1304                    *nl    UNCONN 0      0                                               0:1305                    *nl    UNCONN 0      0                                               0:1299                    *nl    UNCONN 0      0                                               0:498                     *nl    UNCONN 0      0                                               0:464                     *nl    UNCONN 4352   0                                               4:27016                   *nl    UNCONN 768    0                                               4:0                       *nl    UNCONN 0      0                                               7:0                       *nl    UNCONN 0      0                                               9:-1308913300             *nl    UNCONN 0      0                                               9:1                       *nl    UNCONN 0      0                                               9:0                       *nl    UNCONN 0      0                                               9:1                       *nl    UNCONN 0      0                                              10:0                       *nl    UNCONN 0      0                                              11:0                       *nl    UNCONN 0      0                                              12:0                       *nl    UNCONN 0      0                                              15:-1640591589             *nl    UNCONN 0      0                                              15:1089                    *nl    UNCONN 0      0                                              15:-1600254023             *nl    UNCONN 0      0                                              15:-1481408079             *nl    UNCONN 0      0                                              15:498                     *nl    UNCONN 0      0                                              15:-1032835744             *nl    UNCONN 0      0                                              15:-536882272              *nl    UNCONN 0      0                                              15:1361                    *nl    UNCONN 0      0                                              15:484                     *nl    UNCONN 0      0                                              15:-1174616266             *nl    UNCONN 0      0                                              15:1064                    *nl    UNCONN 0      0                                              15:576                     *nl    UNCONN 0      0                                              15:527                     *nl    UNCONN 0      0                                              15:1350                    *nl    UNCONN 0      0                                              15:1389                    *nl    UNCONN 0      0                                              15:486                     *nl    UNCONN 0      0                                              15:-517192903              *nl    UNCONN 0      0                                              15:491                     *nl    UNCONN 0      0                                              15:-1387878743             *nl    UNCONN 0      0                                              15:1228                    *nl    UNCONN 0      0                                              15:-1904375485             *nl    UNCONN 0      0                                              15:-393413277              *nl    UNCONN 0      0                                              15:0                       *nl    UNCONN 0      0                                              15:773                     *nl    UNCONN 0      0                                              15:-685180972              *nl    UNCONN 0      0                                              15:-578754795              *nl    UNCONN 0      0                                              15:801                     *nl    UNCONN 0      0                                              15:480                     *nl    UNCONN 0      0                                              15:1697                    *nl    UNCONN 0      0                                              15:1                       *nl    UNCONN 0      0                                              15:-931232786              *nl    UNCONN 0      0                                              15:-1481408079             *nl    UNCONN 0      0                                              15:1697                    *nl    UNCONN 0      0                                              15:1389                    *nl    UNCONN 0      0                                              15:1361                    *nl    UNCONN 0      0                                              15:1350                    *nl    UNCONN 0      0                                              15:-1775953004             *nl    UNCONN 0      0                                              15:-1174616266             *nl    UNCONN 0      0                                              15:1228                    *nl    UNCONN 0      0                                              15:-393413277              *nl    UNCONN 0      0                                              15:1089                    *nl    UNCONN 0      0                                              15:1064                    *nl    UNCONN 0      0                                              15:-1904375485             *nl    UNCONN 0      0                                              15:-1600254023             *nl    UNCONN 0      0                                              15:-1640591589             *nl    UNCONN 0      0                                              15:801                     *nl    UNCONN 0      0                                              15:-931232786              *nl    UNCONN 0      0                                              15:773                     *nl    UNCONN 0      0                                              15:-578754795              *nl    UNCONN 0      0                                              15:-1387878743             *nl    UNCONN 0      0                                              15:576                     *nl    UNCONN 0      0                                              15:527                     *nl    UNCONN 0      0                                              15:498                     *nl    UNCONN 0      0                                              15:480                     *nl    UNCONN 0      0                                              15:-685180972              *nl    UNCONN 0      0                                              15:-1032835744             *nl    UNCONN 0      0                                              15:-517192903              *nl    UNCONN 0      0                                              15:486                     *nl    UNCONN 0      0                                              15:491                     *nl    UNCONN 0      0                                              15:484                     *nl    UNCONN 0      0                                              15:-536882272              *nl    UNCONN 0      0                                              15:1                       *nl    UNCONN 0      0                                              16:0                       *nl    UNCONN 0      0                                              16:-108442583              *nl    UNCONN 0      0                                              16:498                     *nl    UNCONN 0      0                                              16:-108442583              *nl    UNCONN 0      0                                              18:0                       *p_dgr UNCONN 0      0                                          [2054]:enp0s8                  *u_str LISTEN 0      4096                          /tmp/.ICE-unix/1209 18459                  * 0u_dgr UNCONN 0      0                                               * 14865                  * 0u_dgr UNCONN 0      0                   /run/user/1000/systemd/notify 17936                  * 0u_str LISTEN 0      4096               /run/user/1000/systemd/private 17939                  * 0u_str LISTEN 0      4096                           /run/user/1000/bus 17951                  * 0u_str LISTEN 0      4096               /run/user/1000/gnupg/S.dirmngr 17958                  * 0u_str LISTEN 0      5                          /run/user/1000/gcr/ssh 17960                  * 0u_str LISTEN 0      5                  /run/user/1000/keyring/control 17962                  * 0u_str LISTEN 0      4096     /run/user/1000/gnupg/S.gpg-agent.browser 17964                  * 0u_str LISTEN 0      4096       /run/user/1000/gnupg/S.gpg-agent.extra 17966                  * 0u_str LISTEN 0      4096         /run/user/1000/gnupg/S.gpg-agent.ssh 17968                  * 0u_str LISTEN 0      4096             /run/user/1000/gnupg/S.gpg-agent 17970                  * 0u_str LISTEN 0      4096                  /run/user/1000/pulse/native 17972                  * 0u_str LISTEN 0      4096                    /run/user/1000/pipewire-0 17974                  * 0u_str LISTEN 0      4096             /run/user/1000/pk-debconf-socket 17976                  * 0u_dgr UNCONN 0      0                                               * 19523                  * 0u_str LISTEN 0      4096                         /run/systemd/private 13113                  * 0u_str LISTEN 0      4096   /run/systemd/userdb/io.systemd.DynamicUser 13115                  * 0u_str LISTEN 0      1                               /tmp/.X11-unix/X0 18705                  * 0u_str LISTEN 0      4096            /run/systemd/io.system.ManagedOOM 13116                  * 0u_str LISTEN 0      1                               /tmp/.X11-unix/X1 18707                  * 0u_str LISTEN 0      128                 /run/user/1000/keyring/pkcs11 18155                  * 0u_dgr UNCONN 0      0                                               * 19223                  * 0u_str LISTEN 0      4096                   /run/systemd/fsck.progress 13129                  * 0u_str LISTEN 0      4096                  /run/systemd/journal/stdout 13137                  * 0u_seq LISTEN 0      4096                            /run/udev/control 13139                  * 0u_str LISTEN 0      128                  /run/user/1000/openssh_agent 18439                  * 0u_str LISTEN 0      10                     /run/user/1000/keyring/ssh 18520                  * 0u_str LISTEN 0      4096      /run/systemd/journal/io.systemd.journal 13589                  * 0u_str LISTEN 0      4096                    /run/user/1000/at-spi/bus 18608                  * 0u_str LISTEN 0      128                      /run/user/1000/wayland-0 18708                  * 0u_dgr UNCONN 0      0                                               * 18849                  * 0u_dgr UNCONN 0      0                                               * 18617                  * 0u_str LISTEN 0      4096                     /run/avahi-daemon/socket 14587                  * 0u_dgr UNCONN 0      0                                               * 15077                  * 0u_str LISTEN 0      4096                          /run/cups/cups.sock 14591                  * 0u_str LISTEN 0      4096                  /run/dbus/system_bus_socket 14596                  * 0u_dgr UNCONN 0      0                                               * 19796                  * 0u_dgr UNCONN 0      0                                               * 18818                  * 0u_dgr UNCONN 0      0                                               * 18498                  * 0u_dgr UNCONN 0      0                                               * 18157                  * 0u_str LISTEN 0      128                   /run/user/1000/keyring/.ssh 26137                  * 0u_dgr UNCONN 0      0                                               * 16866                  * 0u_dgr UNCONN 0      0                                               * 18098                  * 0u_dgr UNCONN 0      0                                               * 19973                  * 0u_dgr UNCONN 0      0                                               * 18120                  * 0u_dgr UNCONN 0      0                                               * 19191                  * 0u_str LISTEN 0      10                            @/tmp/dbus-m3Tmj6OX 15689                  * 0u_str LISTEN 0      4096                         @/tmp/.ICE-unix/1209 18458                  * 0u_str LISTEN 0      1                              @/tmp/.X11-unix/X0 18704                  * 0u_str LISTEN 0      1                              @/tmp/.X11-unix/X1 18706                  * 0u_str LISTEN 0      10      @/home/vboxuser/.cache/ibus/dbus-EYCYpudX 19470                  * 0u_str LISTEN 0      10                            @/tmp/dbus-y0FIJaci 15690                  * 0icmp6 UNCONN 0      0                                               *:58                     *:*udp   UNCONN 0      0                                         0.0.0.0:631              0.0.0.0:*udp   UNCONN 0      0                                         0.0.0.0:49060            0.0.0.0:*udp   UNCONN 0      0                                         0.0.0.0:5353             0.0.0.0:*udp   UNCONN 0      0                                            [::]:50832               [::]:*udp   UNCONN 0      0                                            [::]:5353                [::]:*tcp   LISTEN 0      128                                       0.0.0.0:22               0.0.0.0:*tcp   LISTEN 0      128                                     127.0.0.1:631              0.0.0.0:*tcp   LISTEN 0      128                                         [::1]:631                 [::]:*tcp   LISTEN 0      128                                          [::]:22                  [::]:*/tmp/test_kali.sh: line 334: /sbin/ip6tables: No such file or directory</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
@@ -8052,6 +8861,11 @@
           <t>Install rsyslog:  # apt install rsyslog</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>/usr/bin/dpkg -s rsyslog 2&gt;&amp;1</t>
@@ -8097,6 +8911,11 @@
           <t>Run the following commands to enable rsyslog:  # systemctl --now enable rsyslog  Notes:  Additional methods of enabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled rsyslog | /usr/bin/awk '{print} END {if(NR==0) print "disabled" }'</t>
@@ -8142,6 +8961,11 @@
           <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
         </is>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>/bin/grep '^\s*\*\.emerg' /etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
@@ -8187,6 +9011,11 @@
           <t>Edit the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files and set $FileCreateMode to 0640 or more restrictive:  $FileCreateMode 0640</t>
         </is>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>/bin/egrep '^[\s]\*\$FileCreateMode' /etc/rsyslog.conf /etc/rsyslog.d/* | /usr/bin/awk '{ print; if(/\$FileCreateMode 0[246][04]0/) { print "pass" } else { print "fail"; fail=1; } } END { if(fail==1){ result="Failures found"; }; if(fail==0 &amp;&amp; NR&gt;0){ result="All results passing"; }; if(NR==0){ result="No results found"; }; print result; }'</t>
@@ -8232,6 +9061,11 @@
           <t>For hosts that are designated as log hosts, edit the /etc/rsyslog.conf file and un-comment or add the following lines:  $ModLoad imtcp  $InputTCPServerRun 514  For hosts that are not designated as log hosts, edit the /etc/rsyslog.conf file and comment or remove the following lines:  # $ModLoad imtcp  # $InputTCPServerRun 514  Run the following command to reload the rsyslogd configuration:  # systemctl restart rsyslog</t>
         </is>
       </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>/bin/grep '\$ModLoad imtcp' /etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
@@ -8277,6 +9111,11 @@
           <t>For hosts that are designated as log hosts, edit the /etc/rsyslog.conf file and un-comment or add the following lines:  $ModLoad imtcp  $InputTCPServerRun 514  For hosts that are not designated as log hosts, edit the /etc/rsyslog.conf file and comment or remove the following lines:  # $ModLoad imtcp  # $InputTCPServerRun 514  Run the following command to reload the rsyslogd configuration:  # systemctl restart rsyslog</t>
         </is>
       </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>/bin/grep '\$InputTCPServerRun' /etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
@@ -8322,6 +9161,11 @@
           <t>Run the following commands to set permissions on all existing log files:  find /var/log -type f -exec chmod g-wx,o-rwx '{}' + -o -type d -exec chmod g-w,o-rwx '{}' +  Notes:  You may also need to change the configuration for your logging software or services for any logs that had incorrect permissions.</t>
         </is>
       </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>OUTPUT=$(ls -l /var/log); /usr/bin/find /var/log -type f -perm /g+wx,o+rwx -ls | /bin/awk -v awkvar="${OUTPUT}" '{print} END {if (NR == 0) print awkvar "\npass" ; else print "fail"}'</t>
@@ -8334,7 +9178,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>656867      8 -rw-r--r--   1 root     root         5463 Jul 26 10:03 /var/log/fontconfig.log653058     52 -rw-r--r--   1 root     root        47648 Jul 26 10:05 /var/log/alternatives.log652845     60 -rw-r--r--   1 root     root        61226 Jul 26 10:06 /var/log/installer/status652843     24 -rw-r--r--   1 root     root        21138 Jul 26 10:06 /var/log/installer/hardware-summary652846      4 -rw-r--r--   1 root     root          162 Jul 26 10:06 /var/log/installer/lsb-release652851      4 -rw-r--r--   1 root     root          117 Jul 26 10:06 /var/log/installer/firmware-summary653002    788 -rw-r--r--   1 root     root       799365 Jul 26 16:46 /var/log/dpkg.log653337      0 -rw-r--r--   1 root     root            0 Jul 26 09:40 /var/log/faillog653030    204 -rw-rw-r--   1 root     utmp       203520 Aug  1 15:42 /var/log/wtmp653031      4 -rw-rw----   1 root     utmp         2304 Aug  1 09:35 /var/log/btmp652811     24 -rw-r--r--   1 root     root        20745 Jul 26 10:05 /var/log/vboxpostinstall.log653032      4 -rw-rw-r--   1 root     utmp       292292 Aug  1 15:42 /var/log/lastlog652814     60 -rw-r--r--   1 root     root        60772 Jul 26 16:46 /var/log/apt/eipp.log.xz653379     72 -rw-r--r--   1 root     root        70717 Jul 26 16:46 /var/log/apt/history.logfail</t>
+          <t>656867      8 -rw-r--r--   1 root     root         5463 Jul 26 10:03 /var/log/fontconfig.log653058     52 -rw-r--r--   1 root     root        47648 Jul 26 10:05 /var/log/alternatives.log652845     60 -rw-r--r--   1 root     root        61226 Jul 26 10:06 /var/log/installer/status652843     24 -rw-r--r--   1 root     root        21138 Jul 26 10:06 /var/log/installer/hardware-summary652846      4 -rw-r--r--   1 root     root          162 Jul 26 10:06 /var/log/installer/lsb-release652851      4 -rw-r--r--   1 root     root          117 Jul 26 10:06 /var/log/installer/firmware-summary653002    788 -rw-r--r--   1 root     root       799365 Jul 26 16:46 /var/log/dpkg.log653337      0 -rw-r--r--   1 root     root            0 Jul 26 09:40 /var/log/faillog653030    208 -rw-rw-r--   1 root     utmp       206592 Aug  1 16:54 /var/log/wtmp653031      4 -rw-rw----   1 root     utmp         2304 Aug  1 09:35 /var/log/btmp652811     24 -rw-r--r--   1 root     root        20745 Jul 26 10:05 /var/log/vboxpostinstall.log653032      4 -rw-rw-r--   1 root     utmp       292292 Aug  1 16:54 /var/log/lastlog652814     60 -rw-r--r--   1 root     root        60772 Jul 26 16:46 /var/log/apt/eipp.log.xz653379     72 -rw-r--r--   1 root     root        70717 Jul 26 16:46 /var/log/apt/history.logfail</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
@@ -8367,6 +9211,11 @@
           <t>Based on your system configuration, run the appropriate one of the following commands to enable cron:  # systemctl --now enable cron  Notes:  Additional methods of enabling a service exist. Consult your distribution documentation for appropriate methods.</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>/bin/systemctl is-enabled cron | /usr/bin/awk '{print} END {if(NR==0) print "disabled" }'</t>
@@ -8412,6 +9261,11 @@
           <t>Edit the /etc/ssh/sshd_config file add/modify the Ciphers line to contain a comma separated list of the site approved ciphers Example:  Ciphers chacha20-poly1305@openssh.com,aes256-gcm@openssh.com,aes128-gcm@openssh.com,aes256-ctr,aes192-ctr,aes128-ctr  Default Value:  Ciphers chacha20-poly1305@openssh.com,aes128-ctr,aes192-ctr,aes256-ctr,aes128-gcm@openssh.com,aes256-gcm@openssh.com</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>/usr/sbin/sshd -T | /bin/grep ciphers | /bin/grep -oP '((3des-cbc|aes128-cbc|aes192-cbc|aes256-cbc|arcfour|arcfour128|arcfour256|blowfish-cbc|cast128-cbcz|rijndael-cbc@lysator.liu.se)[,]?)+' | /bin/awk '{print} END {if (NR == 0) print "pass"; else print $0 }'</t>
@@ -8457,6 +9311,11 @@
           <t>Edit the /etc/ssh/sshd_config file and add/modify the MACs line to contain a comma separated list of the site approved MACs Example:  MACs hmac-sha2-512-etm@openssh.com,hmac-sha2-256-etm@openssh.com,hmac-sha2-512,hmac-sha2-256  Default Value:  MACs umac-64-etm@openssh.com,umac-128-etm@openssh.com,hmac-sha2-256-etm@openssh.com,hmac-sha2-512-etm@openssh.com,hmac-sha1-etm@openssh.com,umac-64@openssh.com,umac-128@openssh.com,hmac-sha2-256,hmac-sha2-512,hmac-sha1</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>/usr/sbin/sshd -T | /bin/grep -i 'MACs' | /bin/grep -oP '((hmac-md5|hmac-md5-96|hmac-ripemd160|hmac-sha1|hmac-sha1-96|hmac-sha1-96|umac-64@openssh.com|umac-128@openssh.com|hmac-md5-etm@openssh.com|hmac-md5-96-etm@openssh.com|hmac-ripemd160-etm@openssh.com|hmac-sha1-etm@openssh.com|hmac-sha1-96-etm@openssh.com|umac-64-etm@openssh.com|umac-128-etm@openssh.com)[,]?)+' | /bin/awk '{print} END {if (NR == 0) print "pass"; else print $0 }'</t>
@@ -8502,6 +9361,11 @@
           <t>Edit the /etc/ssh/sshd_config file add/modify the KexAlgorithms line to contain a comma separated list of the site approved key exchange algorithms Example:  KexAlgorithms curve25519-sha256,curve25519-sha256@libssh.org,diffie-hellman-group14-sha256,diffie-hellman-group16-sha512,diffie-hellman-group18-sha512,ecdh-sha2-nistp521,ecdh-sha2-nistp384,ecdh-sha2-nistp256,diffie-hellman-group-exchange-sha256     Default Value:  KexAlgorithms curve25519-sha256,curve25519-sha256@libssh.org,ecdh-sha2-nistp256,ecdh-sha2-nistp384,ecdh-sha2-nistp521,diffie-hellman-group-exchange-sha256,diffie-hellman-group16-sha512,diffie-hellman-group18-sha512,diffie-hellman-group14-sha256,diffie-hellman-group14-sha1  Notes:  Kex algorithms have a higher preference the earlier they appear in the list  Some organizations may have stricter requirements for approved Key exchange algorithms. Ensure that Key exchange algorithms used are in compliance with site policy.  The only Key Exchange Algorithms currently FIPS 140-2 approved are: ecdh-sha2-nistp256,ecdh-sha2-nistp384,ecdh-sha2-nistp521,diffie-hellman-group-exchange-sha256,diffie-hellman-group16-sha512,diffie-hellman-group18-sha512,diffie-hellman-group14-sha256  The Key Exchange algorithms supported by OpenSSH 7 are:  curve25519-sha256  curve25519-sha256@libssh.org  diffie-hellman-group1-sha1  diffie-hellman-group14-sha1  diffie-hellman-group-exchange-sha1  diffie-hellman-group-exchange-sha256  ecdh-sha2-nistp256  ecdh-sha2-nistp384  ecdh-sha2-nistp521</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>/usr/sbin/sshd -T | /bin/grep -i 'kexalgorithms' | /bin/grep -oP '((diffie-hellman-group1-sha1|diffie-hellman-group14-sha1|diffie-hellman-group-exchange-sha1)[,]?)+' | /bin/awk '{print} END {if (NR == 0) print "pass"; else print $0 }'</t>
@@ -8547,6 +9411,11 @@
           <t>Edit the /etc/ssh/sshd_config file to set the parameters according to site policy:  ClientAliveInterval 300  ClientAliveCountMax 0  Default Value:  ClientAliveInterval 300  ClientAliveCountMax 0</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>/usr/sbin/sshd -T | /bin/grep clientaliveinterval</t>
@@ -8592,6 +9461,11 @@
           <t>Edit the /etc/ssh/sshd_config file to set the parameters according to site policy:  ClientAliveInterval 300  ClientAliveCountMax 0  Default Value:  ClientAliveInterval 300  ClientAliveCountMax 0</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>/usr/sbin/sshd -T | /bin/grep clientalivecountmax</t>
@@ -8637,6 +9511,11 @@
           <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  LoginGraceTime 60  Default Value:  LoginGraceTime 120</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>/usr/sbin/sshd -T | /bin/grep logingracetime</t>
@@ -8677,6 +9556,11 @@
           <t>Ensure password creation requirements are configured - minclass</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>/usr/bin/grep -E '^[[:space:]]*minclass' /etc/security/pwquality.conf | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -8722,6 +9606,11 @@
           <t>Run the following command to install the pam_pwquality module:  apt install libpam-pwquality  Edit the file /etc/security/pwquality.conf and add or modify the following line for password length to conform to site policy  minlen = 14  Edit the file /etc/security/pwquality.conf and add or modify the following line for password complexity to conform to site policy  minclass = 4  OR  dcredit = -1 ucredit = -1 ocredit = -1 lcredit = -1  Edit the /etc/pam.d/common-password file to include the appropriate options for pam_pwquality.so and to conform to site policy:  password requisite pam_pwquality.so retry=3  Notes:  Additional module options may be set, recommendation requirements only cover including try_first_pass and minlen set to 14 or more.  Settings in /etc/security/pwquality.conf must use spaces around the = symbol.</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>/usr/bin/grep -E '^[[:space:]]*minclass[[:space:]]*=[[:space:]]*4' /etc/security/pwquality.conf | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -8767,6 +9656,11 @@
           <t>Run the following command to install the pam_pwquality module:  apt install libpam-pwquality  Edit the file /etc/security/pwquality.conf and add or modify the following line for password length to conform to site policy  minlen = 14  Edit the file /etc/security/pwquality.conf and add or modify the following line for password complexity to conform to site policy  minclass = 4  OR  dcredit = -1 ucredit = -1 ocredit = -1 lcredit = -1  Edit the /etc/pam.d/common-password file to include the appropriate options for pam_pwquality.so and to conform to site policy:  password requisite pam_pwquality.so retry=3  Notes:  Additional module options may be set, recommendation requirements only cover including try_first_pass and minlen set to 14 or more.  Settings in /etc/security/pwquality.conf must use spaces around the = symbol.</t>
         </is>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>/usr/bin/grep -P '^[[:space:]]*\Scredit[[:space:]]*=[[:space:]]*-[1-9]' /etc/security/pwquality.conf | /usr/bin/sed ':a;$!{N;s/\n/ /;ba;}' | /usr/bin/grep -P '(?=.*?dcredit).*(?=.*?ucredit).*(?=.*?ocredit).*(?=.*?lcredit)' | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -8812,6 +9706,11 @@
           <t>Edit the /etc/pam.d/common-auth file and add the auth line below:  auth required pam_tally2.so onerr=fail audit silent deny=5 unlock_time=900  Edit the /etc/pam.d/common-account file and add the account lines bellow:  account     requisite    pam_deny.so account     required     pam_tally2.so  Note: If a user has been locked out because they have reached the maximum consecutive failure count defined by deny= in the pam_tally2.so module, the user can be unlocked by issuing the command /sbin/pam_tally2 -u &lt;username&gt; --reset. This command sets the failed count to 0, effectively unlocking the user.  Notes:  BUG In pam_tally2.so  To work around this issue you have to add pam_tally2 to the account section account required pam_tally2.so for the counter to reset to 0 when using sudo  Use of the 'audit' keyword may log credentials in the case of user error during authentication. This risk should be evaluated in the context of the site policies of your organization.</t>
         </is>
       </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>/bin/grep -P '^[\s]*auth[\s]+required[\s]+pam_tally2\.so[\s]*' /etc/pam.d/common-auth | /bin/grep -P '(?=.*?onerr=fail).*(?=.*?audit).*(?=.*?silent).*(?=.*?deny=@PAM_DENY_VALUE@).*(?=.*?unlock_time=@PAM_LOCKOUT_VALUE@)' | /usr/bin/awk '{print} END {if (NR != 0) print "pass" ; else print "fail"}'</t>
@@ -8857,6 +9756,11 @@
           <t>Run the following command to set the default password inactivity period to 30 days:  # useradd -D -f 30  Modify user parameters for all users with a password set to match:  # chage --inactive 30 &lt;user&gt;  Notes:  You can also check this setting in /etc/shadow directly. The 7th field should be 30 or less for all users with a password.  Note: A value of -1 would disable this setting.</t>
         </is>
       </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>/usr/sbin/useradd -D | /bin/grep INACTIVE</t>
@@ -8902,6 +9806,11 @@
           <t>Investigate any users with a password change date in the future and correct them. Locking the account, expiring the password, or resetting the password manually may be appropriate.</t>
         </is>
       </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>for user in $(cat /etc/shadow | cut -d: -f1); do expiry=$(date -d "$(chage --list $user | grep -Poi 'Last password change\s*\:[\s]*\K((Jan|Feb|Mar|Apr|May|Jun|Jul|Aug|Sep|Oct|Nov|Dec)[\s]+[0-9]{1,2}, 2[0-9]{3})$')" +%s); today=$(date +%s); if [ $expiry -gt $today ]; then echo "$user expiry date is in future"; fi ; done | /usr/bin/awk '{print} END {if (NR == 0) print "pass"; else print "fail"}'</t>
@@ -8947,6 +9856,11 @@
           <t>Run the commands appropriate for your distribution: Set the shell for any accounts returned by the audit to nologin:  # usermod -s $(which nologin) &lt;user&gt;  Lock any non root accounts returned by the audit:  # usermod -L &lt;user&gt;  The following command will set all system accounts to a non login shell:  awk -F: '($1!='root' &amp;amp;&amp;amp; $1!='sync' &amp;amp;&amp;amp; $1!='shutdown' &amp;amp;&amp;amp; $1!='halt' &amp;amp;&amp;amp; $1!~/^\+/ &amp;amp;&amp;amp; $3&amp;lt;''$(awk '/^\s*UID_MIN/{print $2}' /etc/login.defs)'' &amp;amp;&amp;amp; $7!='''$(which nologin)''' &amp;amp;&amp;amp; $7!='/bin/false') {print $1}' /etc/passwd | while read -r user; do usermod -s '$(which nologin)' '$user'; done  The following command will automatically lock not root system accounts:  awk -F: '($1!='root' &amp;amp;&amp;amp; $1!~/^\+/ &amp;amp;&amp;amp; $3&amp;lt;''$(awk '/^\s*UID_MIN/{print $2}' /etc/login.defs)'') {print $1}' /etc/passwd | xargs -I '{}' passwd -S '{}' | awk '($2!='L' &amp;amp;&amp;amp; $2!='LK') {print $1}' | while read -r user; do usermod -L '$user'; done  Notes:  The root, sync, shutdown, and halt users are exempted from requiring a non-login shell.</t>
         </is>
       </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>/usr/bin/awk -F: '($1!="root" &amp;&amp; $1!~\/^\+\/ &amp;&amp; $3&amp;lt;'"$(/usr/bin/awk '\/^[\s]*UID_MIN\/{print $2}' /etc/login\.defs)"') {print $1}' /etc/passwd | /usr/bin/xargs -I '{}' /usr/bin/passwd -S '{}' | /usr/bin/awk '($2!="L" &amp;&amp; $2!="LK") {print $1}' | /usr/bin/awk '{print} END {if (NR == 0) print "pass" ; else print "fail"}'</t>
@@ -8992,6 +9906,11 @@
           <t>Remove entries for any consoles that are not in a physically secure location.</t>
         </is>
       </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>/bin/grep -v "console" /etc/securetty | /usr/bin/awk '{ print } END { if (NR==0) print "none" }'</t>
@@ -9037,6 +9956,11 @@
           <t>Create an empty group that will be specified for use of the su command. The group should be named according to site policy. Example  # groupadd sugroup  Add the following line to the /etc/pam.d/su file, specifying the empty group:  auth required pam_wheel.so use_uid group=sugroup</t>
         </is>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>/bin/grep pam_wheel.so /etc/pam.d/su; /bin/cat /etc/group</t>
@@ -9082,6 +10006,11 @@
           <t>If any accounts in the /etc/shadow file do not have a password, run the following command to lock the account until it can be determined why it does not have a password:  # passwd -l &lt;username&gt;  Also, check to see if the account is logged in and investigate what it is being used for to determine if it needs to be forced off.</t>
         </is>
       </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>/bin/cat /etc/shadow | /usr/bin/awk -F : '($2 == "") { print $1 " does not have a password."}'| /usr/bin/awk '{print} END {if (NR == 0) print "none"'}</t>
@@ -9127,6 +10056,11 @@
           <t>If any users' home directories do not exist, create them and make sure the respective user owns the directory. Users without an assigned home directory should be removed or assigned a home directory as appropriate.  Notes:  The audit script checks all users with interactive shells except halt, sync, shutdown, and nfsnobody.</t>
         </is>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>/bin/cat /etc/passwd | /bin/egrep -v '^(root|halt|sync|shutdown)' | /usr/bin/awk -F: '($7 != "/usr/sbin/nologin" &amp;&amp; $7 != "/bin/false") { print $1 " " $6 }' | while read user dir; do if [ ! -d "$dir" ]; then /bin/echo "The home directory ($dir) of user $user does not exist."; fi; done | /usr/bin/awk '{ print } END { if(NR==0) { print "No results found" } }'</t>
@@ -9172,6 +10106,11 @@
           <t>Making global modifications to users' files without alerting the user community can result in unexpected outages and unhappy users. Therefore, it is recommended that a monitoring policy be established to report user .netrc file permissions and determine the action to be taken in accordance with site policy.  Notes:  While the complete removal of .netrc files is recommended if any are required on the system secure permissions must be applied.</t>
         </is>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>for dir in $(/usr/bin/cat /etc/passwd | /usr/bin/egrep -v '(root|halt|sync|shutdown)' | /usr/bin/awk -F: '($7 != "/sbin/nologin") { print $6 }'); do if [ -f "$dir/.netrc" ]; then fileperm=$(ls -ld $dir/.netrc | cut -f1 -d" "); if [ $(/usr/bin/echo $fileperm | cut -c5) != "-" ]; then /usr/bin/echo "Group Read set on $dir/.netrc"; fi; if [ $(/usr/bin/echo $fileperm | cut -c6) != "-" ]; then /usr/bin/echo "Group Write set on $dir/.netrc"; fi; if [ $(/usr/bin/echo $fileperm | cut -c7) != "-" ]; then /usr/bin/echo "Group Execute set on $dir/.netrc"; fi; if [ $(/usr/bin/echo $fileperm | cut -c8) != "-" ]; then /usr/bin/echo "Other Read set on $dir/.netrc"; fi; if [ $(/usr/bin/echo $fileperm | cut -c9) != "-" ]; then /usr/bin/echo "Other Write set on $dir/.netrc"; fi; if [ $(/usr/bin/echo $fileperm | cut -c10) != "-" ]; then /usr/bin/echo "Other Execute set on $dir/.netrc"; fi; fi; done | /usr/bin/awk '{ print } END { if (NR==0) print "All .netrc files are not group or world accessible" }'</t>
@@ -9217,6 +10156,11 @@
           <t>Making global modifications to users' files without alerting the user community can result in unexpected outages and unhappy users. Therefore, it is recommended that a monitoring policy be established to report user .rhosts files and determine the action to be taken in accordance with site policy.  Notes:  On some distributions the /sbin/nologin should be replaced with /usr/sbin/nologin.</t>
         </is>
       </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>/usr/bin/cat /etc/passwd | /usr/bin/egrep -v '^(root|halt|sync|shutdown)' | /usr/bin/awk -F: '($7 != "/sbin/nologin") { print $1 " " $3 " " $6 }' | while read user uid dir; do if [ -f "$dir/.rhosts" ]; then /usr/bin/echo ".rhosts file $dir/.rhosts exists"; fi; done | /usr/bin/awk '{ print } END { if (NR==0) print "No .rhosts files found" }'</t>
@@ -9262,6 +10206,11 @@
           <t>Remove all users from the shadow group, and change the primary group of any users with shadow as their primary group.</t>
         </is>
       </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>/usr/bin/awk -F: 'FILENAME == "/etc/group" &amp;&amp; $1 == "shadow" { gid=$3; if ($4!="") { print "secondary "$4; f=1 } } FILENAME == "/etc/passwd" &amp;&amp; $4 == gid { print "primary "$1; f=1 } END { if (!f) print "shadow group empty" }' /etc/group /etc/passwd</t>
@@ -9280,6 +10229,1301 @@
       <c r="Q196" t="inlineStr">
         <is>
           <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1.5.1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Ensure permissions on bootloader config are configured</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Run the following commands to set permissions on your grub configuration:  # chown root:root /boot/grub/grub.cfg # chmod og-rwx /boot/grub/grub.cfg  Notes:  This recommendation is designed around the grub bootloader, if LILO or another bootloader is in use in your environment enact equivalent settings.  Replace /boot/grub/grub.cfg with the appropriate grub configuration file for your environment</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>/boot/grub/grub.cfg</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1.8.1.4</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/motd are configured</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Run the following commands to set permissions on /etc/motd :  # chown root:root /etc/motd  # chmod u-x,go-wx /etc/motd</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>/etc/motd</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>1.8.1.5</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/issue are configured</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Run the following commands to set permissions on /etc/issue :  # chown root:root /etc/issue  # chmod u-x,go-wx /etc/issue</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>/etc/issue</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>1.8.1.6</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/issue.net are configured</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Run the following commands to set permissions on /etc/issue.net :  # chown root:root /etc/issue.net  # chmod u-x,go-wx /etc/issue.net</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>/etc/issue.net</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>5.1.2</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/crontab are configured</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Run the following commands to set ownership and permissions on /etc/crontab :  # chown root:root /etc/crontab  # chmod og-rwx /etc/crontab</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>/etc/crontab</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>1</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>5.1.3</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/cron.hourly are configured</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Run the following commands to set ownership and permissions on /etc/cron.hourly :  # chown root:root /etc/cron.hourly  # chmod og-rwx /etc/cron.hourly</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>/etc/cron.hourly</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>077</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>1</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>5.1.4</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/cron.daily are configured</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Run the following commands to set ownership and permissions on /etc/cron.daily :  # chown root:root /etc/cron.daily  # chmod og-rwx /etc/cron.daily</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>/etc/cron.daily</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>077</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>1</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>5.1.5</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/cron.weekly are configured</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Run the following commands to set ownership and permissions on /etc/cron.weekly :  # chown root:root /etc/cron.weekly  # chmod og-rwx /etc/cron.weekly</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>/etc/cron.weekly</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>077</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>1</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>5.1.6</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/cron.monthly are configured</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Run the following commands to set ownership and permissions on /etc/cron.monthly :  # chown root:root /etc/cron.monthly  # chmod og-rwx /etc/cron.monthly</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>/etc/cron.monthly</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>077</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>1</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>5.1.7</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/cron.d are configured</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Run the following commands to set ownership and permissions on /etc/cron.d :  # chown root:root /etc/cron.d  # chmod og-rwx /etc/cron.d</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>/etc/cron.d</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>077</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>755</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>1</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>5.1.8</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Ensure at/cron is restricted to authorized users - at.allow</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Run the following commands to remove /etc/cron.deny, create /etc/cron.allow, and set permissions and ownership for /etc/cron.allow:  # rm /etc/cron.deny # touch /etc/cron.allow # chown root:root /etc/cron.allow # chmod g-wx,o-rwx /etc/cron.allow  If at is installed on the system: Run the following commands to remove /etc/at.deny; create /etc/at.allow, and set ownership and permissions on/etc/at.allow`:  # rm /etc/at.deny # touch /etc/at.allow # chown root:root /etc/at.allow # chmod g-wx,o-rwx /etc/at.allow</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>/etc/at.allow</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>stat: cannot statx '/etc/at.allow': No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>1</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>5.1.8</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Ensure at/cron is restricted to authorized users - cron.allow</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Run the following commands to remove /etc/cron.deny, create /etc/cron.allow, and set permissions and ownership for /etc/cron.allow:  # rm /etc/cron.deny # touch /etc/cron.allow # chown root:root /etc/cron.allow # chmod g-wx,o-rwx /etc/cron.allow  If at is installed on the system: Run the following commands to remove /etc/at.deny; create /etc/at.allow, and set ownership and permissions on/etc/at.allow`:  # rm /etc/at.deny # touch /etc/at.allow # chown root:root /etc/at.allow # chmod g-wx,o-rwx /etc/at.allow</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>/etc/cron.allow</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>stat: cannot statx '/etc/cron.allow': No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>1</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>5.2.1</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/ssh/sshd_config are configured</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Run the following commands to set ownership and permissions on /etc/ssh/sshd_config:  # chown root:root /etc/ssh/sshd_config  # chmod og-rwx /etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>077</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>1</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>5.2.2</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Ensure permissions on SSH private host key files are configured</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Run the following commands to set ownership and permissions on the private SSH host key files  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key' -exec chown root:root {} \;  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key' -exec chmod 0600 {} \;</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>/etc/ssh/*key</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>600600600</t>
+        </is>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>1</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>5.2.3</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Ensure permissions on SSH public host key files are configured</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Run the following commands to set permissions and ownership on the SSH host public key files  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key.pub' -exec chmod go-wx {} \;  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key.pub' -exec chown root:root {} \;</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>/etc/ssh/*key.pub</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>644644644</t>
+        </is>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>1</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>6.1.2</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/passwd are configured</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Run the following command to set permissions on /etc/passwd:  # chown root:root /etc/passwd # chmod 644 /etc/passwd</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>/etc/passwd</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>1</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>6.1.3</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/gshadow- are configured</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Run the one of the following chown commands as appropriate and the chmod to set permissions on /etc/gshadow- :  # chown root:root /etc/gshadow- # chown root:shadow /etc/gshadow-  # chmod o-rwx,g-wx /etc/gshadow-</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>/etc/gshadow-</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>root" || "shadow</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>1</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>6.1.4</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/shadow are configured</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Run the one following commands to set permissions on /etc/shadow:  # chmod o-rwx,g-wx /etc/shadow  # chown root:shadow /etc/shadow</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>/etc/shadow</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>shadow</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>1</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>6.1.5</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/group are configured</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Run the following command to set permissions on /etc/group:  # chown root:root /etc/group  # chmod 644 /etc/group</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>/etc/group</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>1</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>6.1.6</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/passwd- are configured</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Run the following command to set permissions on /etc/passwd- :  # chown root:root /etc/passwd-  # chmod u-x,go-rwx /etc/passwd-</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>/etc/passwd-</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>1</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>6.1.7</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/shadow- are configured</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Run the following commands to set permissions on /etc/shadow-:  # chown root:shadow /etc/shadow-  # chmod u-x,go-rwx /etc/shadow-</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>/etc/shadow-</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>root" || "shadow</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>1</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>6.1.8</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/group- are configured</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Run the following command to set permissions on /etc/group- :  # chown root:root /etc/group-  # chmod u-x,go-rwx /etc/group-</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>/etc/group-</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>1</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>6.1.9</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/gshadow are configured</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Run the following commands to set permissions on /etc/gshadow:  # chown root:shadow /etc/gshadow  # chmod o-rwx,g-wx /etc/gshadow</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>/etc/gshadow</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>root" || "shadow</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>1</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>6.2.10</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Ensure users' dot files are not group or world writable</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Making global modifications to users' files without alerting the user community can result in unexpected outages and unhappy users. Therefore, it is recommended that a monitoring policy be established to report user dot file permissions and determine the action to be taken in accordance with site policy.  Notes:  On some distributions the /sbin/nologin should be replaced with /usr/sbin/nologin.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>~/.[!.]*</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>022</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>600644700600644700</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>FAILED</t>
         </is>
       </c>
     </row>

--- a/debian11_result_su5.xlsx
+++ b/debian11_result_su5.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q220"/>
+  <dimension ref="A1:Q291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>/tmp/test_kali.sh: line 328: /usr/sbin/ip6tables: No such file or directoryawk: 1: unexpected character '&amp;'awk: line 1: extra ')'awk: line 1: syntax error at or near {awk: line 1: syntax error at or near elseawk: line 1: syntax error at or near }</t>
+          <t>awk: 1: unexpected character '&amp;'awk: line 1: extra ')'awk: line 1: syntax error at or near {awk: line 1: syntax error at or near elseawk: line 1: syntax error at or near }/tmp/test_kali.sh: line 328: /usr/sbin/ip6tables: No such file or directory</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>Netid State  Recv-Q Send-Q                              Local Address:Port        Peer Address:PortProcessnl    UNCONN 0      0                                               0:1305                    *nl    UNCONN 0      0                                               0:1412                    *nl    UNCONN 0      0                                               0:498                     *nl    UNCONN 0      0                                               0:1720                    *nl    UNCONN 0      0                                               0:1599                    *nl    UNCONN 0      0                                               0:1304                    *nl    UNCONN 0      0                                               0:25750                   *nl    UNCONN 0      0                                               0:1338                    *nl    UNCONN 0      0                                               0:464                     *nl    UNCONN 0      0                                               0:1299                    *nl    UNCONN 0      0                                               0:0                       *nl    UNCONN 0      0                                               0:25750                   *nl    UNCONN 0      0                                               0:1720                    *nl    UNCONN 0      0                                               0:1412                    *nl    UNCONN 0      0                                               0:1599                    *nl    UNCONN 0      0                                               0:1338                    *nl    UNCONN 0      0                                               0:1304                    *nl    UNCONN 0      0                                               0:1305                    *nl    UNCONN 0      0                                               0:1299                    *nl    UNCONN 0      0                                               0:498                     *nl    UNCONN 0      0                                               0:464                     *nl    UNCONN 4352   0                                               4:27016                   *nl    UNCONN 768    0                                               4:0                       *nl    UNCONN 0      0                                               7:0                       *nl    UNCONN 0      0                                               9:-1308913300             *nl    UNCONN 0      0                                               9:1                       *nl    UNCONN 0      0                                               9:0                       *nl    UNCONN 0      0                                               9:1                       *nl    UNCONN 0      0                                              10:0                       *nl    UNCONN 0      0                                              11:0                       *nl    UNCONN 0      0                                              12:0                       *nl    UNCONN 0      0                                              15:-1640591589             *nl    UNCONN 0      0                                              15:1089                    *nl    UNCONN 0      0                                              15:-1600254023             *nl    UNCONN 0      0                                              15:-1481408079             *nl    UNCONN 0      0                                              15:498                     *nl    UNCONN 0      0                                              15:-1032835744             *nl    UNCONN 0      0                                              15:-536882272              *nl    UNCONN 0      0                                              15:1361                    *nl    UNCONN 0      0                                              15:484                     *nl    UNCONN 0      0                                              15:-1174616266             *nl    UNCONN 0      0                                              15:1064                    *nl    UNCONN 0      0                                              15:576                     *nl    UNCONN 0      0                                              15:527                     *nl    UNCONN 0      0                                              15:1350                    *nl    UNCONN 0      0                                              15:1389                    *nl    UNCONN 0      0                                              15:486                     *nl    UNCONN 0      0                                              15:-517192903              *nl    UNCONN 0      0                                              15:491                     *nl    UNCONN 0      0                                              15:-1387878743             *nl    UNCONN 0      0                                              15:1228                    *nl    UNCONN 0      0                                              15:-1904375485             *nl    UNCONN 0      0                                              15:-393413277              *nl    UNCONN 0      0                                              15:0                       *nl    UNCONN 0      0                                              15:773                     *nl    UNCONN 0      0                                              15:-685180972              *nl    UNCONN 0      0                                              15:-578754795              *nl    UNCONN 0      0                                              15:801                     *nl    UNCONN 0      0                                              15:480                     *nl    UNCONN 0      0                                              15:1697                    *nl    UNCONN 0      0                                              15:1                       *nl    UNCONN 0      0                                              15:-931232786              *nl    UNCONN 0      0                                              15:-1481408079             *nl    UNCONN 0      0                                              15:1697                    *nl    UNCONN 0      0                                              15:1389                    *nl    UNCONN 0      0                                              15:1361                    *nl    UNCONN 0      0                                              15:1350                    *nl    UNCONN 0      0                                              15:-1775953004             *nl    UNCONN 0      0                                              15:-1174616266             *nl    UNCONN 0      0                                              15:1228                    *nl    UNCONN 0      0                                              15:-393413277              *nl    UNCONN 0      0                                              15:1089                    *nl    UNCONN 0      0                                              15:1064                    *nl    UNCONN 0      0                                              15:-1904375485             *nl    UNCONN 0      0                                              15:-1600254023             *nl    UNCONN 0      0                                              15:-1640591589             *nl    UNCONN 0      0                                              15:801                     *nl    UNCONN 0      0                                              15:-931232786              *nl    UNCONN 0      0                                              15:773                     *nl    UNCONN 0      0                                              15:-578754795              *nl    UNCONN 0      0                                              15:-1387878743             *nl    UNCONN 0      0                                              15:576                     *nl    UNCONN 0      0                                              15:527                     *nl    UNCONN 0      0                                              15:498                     *nl    UNCONN 0      0                                              15:480                     *nl    UNCONN 0      0                                              15:-685180972              *nl    UNCONN 0      0                                              15:-1032835744             *nl    UNCONN 0      0                                              15:-517192903              *nl    UNCONN 0      0                                              15:486                     *nl    UNCONN 0      0                                              15:491                     *nl    UNCONN 0      0                                              15:484                     *nl    UNCONN 0      0                                              15:-536882272              *nl    UNCONN 0      0                                              15:1                       *nl    UNCONN 0      0                                              16:0                       *nl    UNCONN 0      0                                              16:-108442583              *nl    UNCONN 0      0                                              16:498                     *nl    UNCONN 0      0                                              16:-108442583              *nl    UNCONN 0      0                                              18:0                       *p_dgr UNCONN 0      0                                          [2054]:enp0s8                  *u_str LISTEN 0      4096                          /tmp/.ICE-unix/1209 18459                  * 0u_dgr UNCONN 0      0                                               * 14865                  * 0u_dgr UNCONN 0      0                   /run/user/1000/systemd/notify 17936                  * 0u_str LISTEN 0      4096               /run/user/1000/systemd/private 17939                  * 0u_str LISTEN 0      4096                           /run/user/1000/bus 17951                  * 0u_str LISTEN 0      4096               /run/user/1000/gnupg/S.dirmngr 17958                  * 0u_str LISTEN 0      5                          /run/user/1000/gcr/ssh 17960                  * 0u_str LISTEN 0      5                  /run/user/1000/keyring/control 17962                  * 0u_str LISTEN 0      4096     /run/user/1000/gnupg/S.gpg-agent.browser 17964                  * 0u_str LISTEN 0      4096       /run/user/1000/gnupg/S.gpg-agent.extra 17966                  * 0u_str LISTEN 0      4096         /run/user/1000/gnupg/S.gpg-agent.ssh 17968                  * 0u_str LISTEN 0      4096             /run/user/1000/gnupg/S.gpg-agent 17970                  * 0u_str LISTEN 0      4096                  /run/user/1000/pulse/native 17972                  * 0u_str LISTEN 0      4096                    /run/user/1000/pipewire-0 17974                  * 0u_str LISTEN 0      4096             /run/user/1000/pk-debconf-socket 17976                  * 0u_dgr UNCONN 0      0                                               * 19523                  * 0u_str LISTEN 0      4096                         /run/systemd/private 13113                  * 0u_str LISTEN 0      4096   /run/systemd/userdb/io.systemd.DynamicUser 13115                  * 0u_str LISTEN 0      1                               /tmp/.X11-unix/X0 18705                  * 0u_str LISTEN 0      4096            /run/systemd/io.system.ManagedOOM 13116                  * 0u_str LISTEN 0      1                               /tmp/.X11-unix/X1 18707                  * 0u_str LISTEN 0      128                 /run/user/1000/keyring/pkcs11 18155                  * 0u_dgr UNCONN 0      0                                               * 19223                  * 0u_str LISTEN 0      4096                   /run/systemd/fsck.progress 13129                  * 0u_str LISTEN 0      4096                  /run/systemd/journal/stdout 13137                  * 0u_seq LISTEN 0      4096                            /run/udev/control 13139                  * 0u_str LISTEN 0      128                  /run/user/1000/openssh_agent 18439                  * 0u_str LISTEN 0      10                     /run/user/1000/keyring/ssh 18520                  * 0u_str LISTEN 0      4096      /run/systemd/journal/io.systemd.journal 13589                  * 0u_str LISTEN 0      4096                    /run/user/1000/at-spi/bus 18608                  * 0u_str LISTEN 0      128                      /run/user/1000/wayland-0 18708                  * 0u_dgr UNCONN 0      0                                               * 18849                  * 0u_dgr UNCONN 0      0                                               * 18617                  * 0u_str LISTEN 0      4096                     /run/avahi-daemon/socket 14587                  * 0u_dgr UNCONN 0      0                                               * 15077                  * 0u_str LISTEN 0      4096                          /run/cups/cups.sock 14591                  * 0u_str LISTEN 0      4096                  /run/dbus/system_bus_socket 14596                  * 0u_dgr UNCONN 0      0                                               * 19796                  * 0u_dgr UNCONN 0      0                                               * 18818                  * 0u_dgr UNCONN 0      0                                               * 18498                  * 0u_dgr UNCONN 0      0                                               * 18157                  * 0u_str LISTEN 0      128                   /run/user/1000/keyring/.ssh 26137                  * 0u_dgr UNCONN 0      0                                               * 16866                  * 0u_dgr UNCONN 0      0                                               * 18098                  * 0u_dgr UNCONN 0      0                                               * 19973                  * 0u_dgr UNCONN 0      0                                               * 18120                  * 0u_dgr UNCONN 0      0                                               * 19191                  * 0u_str LISTEN 0      10                            @/tmp/dbus-m3Tmj6OX 15689                  * 0u_str LISTEN 0      4096                         @/tmp/.ICE-unix/1209 18458                  * 0u_str LISTEN 0      1                              @/tmp/.X11-unix/X0 18704                  * 0u_str LISTEN 0      1                              @/tmp/.X11-unix/X1 18706                  * 0u_str LISTEN 0      10      @/home/vboxuser/.cache/ibus/dbus-EYCYpudX 19470                  * 0u_str LISTEN 0      10                            @/tmp/dbus-y0FIJaci 15690                  * 0icmp6 UNCONN 0      0                                               *:58                     *:*udp   UNCONN 0      0                                         0.0.0.0:631              0.0.0.0:*udp   UNCONN 0      0                                         0.0.0.0:49060            0.0.0.0:*udp   UNCONN 0      0                                         0.0.0.0:5353             0.0.0.0:*udp   UNCONN 0      0                                            [::]:50832               [::]:*udp   UNCONN 0      0                                            [::]:5353                [::]:*tcp   LISTEN 0      128                                       0.0.0.0:22               0.0.0.0:*tcp   LISTEN 0      128                                     127.0.0.1:631              0.0.0.0:*tcp   LISTEN 0      128                                         [::1]:631                 [::]:*tcp   LISTEN 0      128                                          [::]:22                  [::]:*/tmp/test_kali.sh: line 334: /sbin/ip6tables: No such file or directory</t>
+          <t>Netid State  Recv-Q Send-Q                              Local Address:Port        Peer Address:PortProcessnl    UNCONN 0      0                                               0:1305                    *nl    UNCONN 0      0                                               0:1412                    *nl    UNCONN 0      0                                               0:498                     *nl    UNCONN 0      0                                               0:29706                   *nl    UNCONN 0      0                                               0:1720                    *nl    UNCONN 0      0                                               0:1599                    *nl    UNCONN 0      0                                               0:1304                    *nl    UNCONN 0      0                                               0:1338                    *nl    UNCONN 0      0                                               0:464                     *nl    UNCONN 0      0                                               0:1299                    *nl    UNCONN 0      0                                               0:0                       *nl    UNCONN 0      0                                               0:29706                   *nl    UNCONN 0      0                                               0:1720                    *nl    UNCONN 0      0                                               0:1412                    *nl    UNCONN 0      0                                               0:1599                    *nl    UNCONN 0      0                                               0:1338                    *nl    UNCONN 0      0                                               0:1304                    *nl    UNCONN 0      0                                               0:1305                    *nl    UNCONN 0      0                                               0:1299                    *nl    UNCONN 0      0                                               0:498                     *nl    UNCONN 0      0                                               0:464                     *nl    UNCONN 768    0                                               4:0                       *nl    UNCONN 4352   0                                               4:30416                   *nl    UNCONN 0      0                                               7:0                       *nl    UNCONN 0      0                                               9:-1308913300             *nl    UNCONN 0      0                                               9:1                       *nl    UNCONN 0      0                                               9:0                       *nl    UNCONN 0      0                                               9:1                       *nl    UNCONN 0      0                                              10:0                       *nl    UNCONN 0      0                                              11:0                       *nl    UNCONN 0      0                                              12:0                       *nl    UNCONN 0      0                                              15:-1640591589             *nl    UNCONN 0      0                                              15:1089                    *nl    UNCONN 0      0                                              15:-1600254023             *nl    UNCONN 0      0                                              15:-1481408079             *nl    UNCONN 0      0                                              15:498                     *nl    UNCONN 0      0                                              15:-1032835744             *nl    UNCONN 0      0                                              15:-536882272              *nl    UNCONN 0      0                                              15:1361                    *nl    UNCONN 0      0                                              15:484                     *nl    UNCONN 0      0                                              15:-1174616266             *nl    UNCONN 0      0                                              15:1064                    *nl    UNCONN 0      0                                              15:576                     *nl    UNCONN 0      0                                              15:527                     *nl    UNCONN 0      0                                              15:1350                    *nl    UNCONN 0      0                                              15:1389                    *nl    UNCONN 0      0                                              15:486                     *nl    UNCONN 0      0                                              15:-517192903              *nl    UNCONN 0      0                                              15:491                     *nl    UNCONN 0      0                                              15:-1387878743             *nl    UNCONN 0      0                                              15:1228                    *nl    UNCONN 0      0                                              15:-1904375485             *nl    UNCONN 0      0                                              15:-393413277              *nl    UNCONN 0      0                                              15:0                       *nl    UNCONN 0      0                                              15:773                     *nl    UNCONN 0      0                                              15:-685180972              *nl    UNCONN 0      0                                              15:-578754795              *nl    UNCONN 0      0                                              15:801                     *nl    UNCONN 0      0                                              15:480                     *nl    UNCONN 0      0                                              15:1697                    *nl    UNCONN 0      0                                              15:1                       *nl    UNCONN 0      0                                              15:-931232786              *nl    UNCONN 0      0                                              15:-1481408079             *nl    UNCONN 0      0                                              15:1697                    *nl    UNCONN 0      0                                              15:1389                    *nl    UNCONN 0      0                                              15:1361                    *nl    UNCONN 0      0                                              15:1350                    *nl    UNCONN 0      0                                              15:-1775953004             *nl    UNCONN 0      0                                              15:-1174616266             *nl    UNCONN 0      0                                              15:1228                    *nl    UNCONN 0      0                                              15:-393413277              *nl    UNCONN 0      0                                              15:1089                    *nl    UNCONN 0      0                                              15:1064                    *nl    UNCONN 0      0                                              15:-1904375485             *nl    UNCONN 0      0                                              15:-1600254023             *nl    UNCONN 0      0                                              15:-1640591589             *nl    UNCONN 0      0                                              15:801                     *nl    UNCONN 0      0                                              15:-931232786              *nl    UNCONN 0      0                                              15:773                     *nl    UNCONN 0      0                                              15:-578754795              *nl    UNCONN 0      0                                              15:-1387878743             *nl    UNCONN 0      0                                              15:576                     *nl    UNCONN 0      0                                              15:527                     *nl    UNCONN 0      0                                              15:498                     *nl    UNCONN 0      0                                              15:480                     *nl    UNCONN 0      0                                              15:-685180972              *nl    UNCONN 0      0                                              15:-1032835744             *nl    UNCONN 0      0                                              15:-517192903              *nl    UNCONN 0      0                                              15:486                     *nl    UNCONN 0      0                                              15:491                     *nl    UNCONN 0      0                                              15:484                     *nl    UNCONN 0      0                                              15:-536882272              *nl    UNCONN 0      0                                              15:1                       *nl    UNCONN 0      0                                              16:0                       *nl    UNCONN 0      0                                              16:-108442583              *nl    UNCONN 0      0                                              16:498                     *nl    UNCONN 0      0                                              16:-108442583              *nl    UNCONN 0      0                                              18:0                       *p_dgr UNCONN 0      0                                          [2054]:enp0s8                  *u_str LISTEN 0      4096                          /tmp/.ICE-unix/1209 18459                  * 0u_dgr UNCONN 0      0                                               * 14865                  * 0u_dgr UNCONN 0      0                   /run/user/1000/systemd/notify 17936                  * 0u_str LISTEN 0      4096               /run/user/1000/systemd/private 17939                  * 0u_str LISTEN 0      4096                           /run/user/1000/bus 17951                  * 0u_str LISTEN 0      4096               /run/user/1000/gnupg/S.dirmngr 17958                  * 0u_str LISTEN 0      5                          /run/user/1000/gcr/ssh 17960                  * 0u_str LISTEN 0      5                  /run/user/1000/keyring/control 17962                  * 0u_str LISTEN 0      4096     /run/user/1000/gnupg/S.gpg-agent.browser 17964                  * 0u_str LISTEN 0      4096       /run/user/1000/gnupg/S.gpg-agent.extra 17966                  * 0u_str LISTEN 0      4096         /run/user/1000/gnupg/S.gpg-agent.ssh 17968                  * 0u_str LISTEN 0      4096             /run/user/1000/gnupg/S.gpg-agent 17970                  * 0u_str LISTEN 0      4096                  /run/user/1000/pulse/native 17972                  * 0u_str LISTEN 0      4096                    /run/user/1000/pipewire-0 17974                  * 0u_str LISTEN 0      4096             /run/user/1000/pk-debconf-socket 17976                  * 0u_dgr UNCONN 0      0                                               * 19523                  * 0u_str LISTEN 0      4096                         /run/systemd/private 13113                  * 0u_str LISTEN 0      4096   /run/systemd/userdb/io.systemd.DynamicUser 13115                  * 0u_str LISTEN 0      1                               /tmp/.X11-unix/X0 18705                  * 0u_str LISTEN 0      4096            /run/systemd/io.system.ManagedOOM 13116                  * 0u_str LISTEN 0      1                               /tmp/.X11-unix/X1 18707                  * 0u_str LISTEN 0      128                 /run/user/1000/keyring/pkcs11 18155                  * 0u_dgr UNCONN 0      0                                               * 19223                  * 0u_str LISTEN 0      4096                   /run/systemd/fsck.progress 13129                  * 0u_str LISTEN 0      4096                  /run/systemd/journal/stdout 13137                  * 0u_seq LISTEN 0      4096                            /run/udev/control 13139                  * 0u_str LISTEN 0      128                  /run/user/1000/openssh_agent 18439                  * 0u_str LISTEN 0      10                     /run/user/1000/keyring/ssh 18520                  * 0u_str LISTEN 0      4096      /run/systemd/journal/io.systemd.journal 13589                  * 0u_str LISTEN 0      4096                    /run/user/1000/at-spi/bus 18608                  * 0u_str LISTEN 0      128                      /run/user/1000/wayland-0 18708                  * 0u_dgr UNCONN 0      0                                               * 18849                  * 0u_dgr UNCONN 0      0                                               * 18617                  * 0u_str LISTEN 0      4096                     /run/avahi-daemon/socket 14587                  * 0u_dgr UNCONN 0      0                                               * 15077                  * 0u_str LISTEN 0      4096                          /run/cups/cups.sock 14591                  * 0u_str LISTEN 0      4096                  /run/dbus/system_bus_socket 14596                  * 0u_dgr UNCONN 0      0                                               * 19796                  * 0u_dgr UNCONN 0      0                                               * 18818                  * 0u_dgr UNCONN 0      0                                               * 18498                  * 0u_dgr UNCONN 0      0                                               * 18157                  * 0u_str LISTEN 0      128                   /run/user/1000/keyring/.ssh 26137                  * 0u_dgr UNCONN 0      0                                               * 16866                  * 0u_dgr UNCONN 0      0                                               * 18098                  * 0u_dgr UNCONN 0      0                                               * 19973                  * 0u_dgr UNCONN 0      0                                               * 18120                  * 0u_dgr UNCONN 0      0                                               * 19191                  * 0u_str LISTEN 0      10                            @/tmp/dbus-m3Tmj6OX 15689                  * 0u_str LISTEN 0      4096                         @/tmp/.ICE-unix/1209 18458                  * 0u_str LISTEN 0      1                              @/tmp/.X11-unix/X0 18704                  * 0u_str LISTEN 0      1                              @/tmp/.X11-unix/X1 18706                  * 0u_str LISTEN 0      10      @/home/vboxuser/.cache/ibus/dbus-EYCYpudX 19470                  * 0u_str LISTEN 0      10                            @/tmp/dbus-y0FIJaci 15690                  * 0icmp6 UNCONN 0      0                                               *:58                     *:*udp   UNCONN 0      0                                         0.0.0.0:631              0.0.0.0:*udp   UNCONN 0      0                                         0.0.0.0:49060            0.0.0.0:*udp   UNCONN 0      0                                         0.0.0.0:5353             0.0.0.0:*udp   UNCONN 0      0                                            [::]:50832               [::]:*udp   UNCONN 0      0                                            [::]:5353                [::]:*tcp   LISTEN 0      128                                       0.0.0.0:22               0.0.0.0:*tcp   LISTEN 0      128                                     127.0.0.1:631              0.0.0.0:*tcp   LISTEN 0      128                                         [::1]:631                 [::]:*tcp   LISTEN 0      128                                          [::]:22                  [::]:*/tmp/test_kali.sh: line 334: /sbin/ip6tables: No such file or directory</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
@@ -9178,7 +9178,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>656867      8 -rw-r--r--   1 root     root         5463 Jul 26 10:03 /var/log/fontconfig.log653058     52 -rw-r--r--   1 root     root        47648 Jul 26 10:05 /var/log/alternatives.log652845     60 -rw-r--r--   1 root     root        61226 Jul 26 10:06 /var/log/installer/status652843     24 -rw-r--r--   1 root     root        21138 Jul 26 10:06 /var/log/installer/hardware-summary652846      4 -rw-r--r--   1 root     root          162 Jul 26 10:06 /var/log/installer/lsb-release652851      4 -rw-r--r--   1 root     root          117 Jul 26 10:06 /var/log/installer/firmware-summary653002    788 -rw-r--r--   1 root     root       799365 Jul 26 16:46 /var/log/dpkg.log653337      0 -rw-r--r--   1 root     root            0 Jul 26 09:40 /var/log/faillog653030    208 -rw-rw-r--   1 root     utmp       206592 Aug  1 16:54 /var/log/wtmp653031      4 -rw-rw----   1 root     utmp         2304 Aug  1 09:35 /var/log/btmp652811     24 -rw-r--r--   1 root     root        20745 Jul 26 10:05 /var/log/vboxpostinstall.log653032      4 -rw-rw-r--   1 root     utmp       292292 Aug  1 16:54 /var/log/lastlog652814     60 -rw-r--r--   1 root     root        60772 Jul 26 16:46 /var/log/apt/eipp.log.xz653379     72 -rw-r--r--   1 root     root        70717 Jul 26 16:46 /var/log/apt/history.logfail</t>
+          <t>656867      8 -rw-r--r--   1 root     root         5463 Jul 26 10:03 /var/log/fontconfig.log653058     52 -rw-r--r--   1 root     root        47648 Jul 26 10:05 /var/log/alternatives.log652845     60 -rw-r--r--   1 root     root        61226 Jul 26 10:06 /var/log/installer/status652843     24 -rw-r--r--   1 root     root        21138 Jul 26 10:06 /var/log/installer/hardware-summary652846      4 -rw-r--r--   1 root     root          162 Jul 26 10:06 /var/log/installer/lsb-release652851      4 -rw-r--r--   1 root     root          117 Jul 26 10:06 /var/log/installer/firmware-summary653002    788 -rw-r--r--   1 root     root       799365 Jul 26 16:46 /var/log/dpkg.log653337      0 -rw-r--r--   1 root     root            0 Jul 26 09:40 /var/log/faillog653030    212 -rw-rw-r--   1 root     utmp       209664 Aug  1 19:25 /var/log/wtmp653031      4 -rw-rw----   1 root     utmp         2304 Aug  1 09:35 /var/log/btmp652811     24 -rw-r--r--   1 root     root        20745 Jul 26 10:05 /var/log/vboxpostinstall.log653032      4 -rw-rw-r--   1 root     utmp       292292 Aug  1 19:25 /var/log/lastlog652814     60 -rw-r--r--   1 root     root        60772 Jul 26 16:46 /var/log/apt/eipp.log.xz653379     72 -rw-r--r--   1 root     root        70717 Jul 26 16:46 /var/log/apt/history.logfail</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
@@ -10238,47 +10238,47 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FILE_CHECK</t>
+          <t>FILE_CONTENT_CHECK_NOT</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1.5.1</t>
+          <t>1.5.3</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Ensure permissions on bootloader config are configured</t>
+          <t>Ensure authentication required for single user mode</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Run the following commands to set permissions on your grub configuration:  # chown root:root /boot/grub/grub.cfg # chmod og-rwx /boot/grub/grub.cfg  Notes:  This recommendation is designed around the grub bootloader, if LILO or another bootloader is in use in your environment enact equivalent settings.  Replace /boot/grub/grub.cfg with the appropriate grub configuration file for your environment</t>
+          <t>Run the following command and follow the prompts to set a password for the root user:  # passwd root</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>/boot/grub/grub.cfg</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>/etc/shadow</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>^root:[\*!]:</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>^root:</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1:root:$y$j9T$ZAqGpmZL3dXmFzpLMRTKx0$x7nVBwwUPiI4A595o/jLRCAUWT10oiGJdT3OnMFV04.:19570:0:99999:7:::</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FILE_CHECK</t>
+          <t>FILE_CONTENT_CHECK_NOT</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1.8.1.4</t>
+          <t>1.8.1.1</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/motd are configured</t>
+          <t>Ensure message of the day is configured properly</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Run the following commands to set permissions on /etc/motd :  # chown root:root /etc/motd  # chmod u-x,go-wx /etc/motd</t>
+          <t>Edit the /etc/motd file with the appropriate contents according to your site policy, remove any instances of \m , \r , \s , \v or references to the OS platform OR If the motd is not used, this file can be removed. Run the following command to remove the motd file:  # rm /etc/motd</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10316,14 +10316,9 @@
           <t>/etc/motd</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>root</t>
-        </is>
-      </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>None</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10331,19 +10326,24 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>root</t>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>(\\[mrsv]|[Dd]ebian)</t>
+        </is>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>(\\[mrsv]|[Dd]ebian)</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>2:The programs included with the Debian GNU/Linux system are free software;6:Debian GNU/Linux comes with ABSOLUTELY NO WARRANTY, to the extent</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -10353,22 +10353,22 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>FILE_CHECK</t>
+          <t>FILE_CONTENT_CHECK_NOT</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>1.8.1.5</t>
+          <t>1.8.1.2</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/issue are configured</t>
+          <t>Ensure local login warning banner is configured properly</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Run the following commands to set permissions on /etc/issue :  # chown root:root /etc/issue  # chmod u-x,go-wx /etc/issue</t>
+          <t>Edit the /etc/issue file with the appropriate contents according to your site policy, remove any instances of \m , \r , \s , \v or references to the OS platform  # echo 'Authorized uses only. All activity may be monitored and reported.' &amp;gt; /etc/issue</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10376,29 +10376,34 @@
           <t>/etc/issue</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>root</t>
-        </is>
-      </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>(\\[mrsv]|[Dd]ebian)</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>(\\[mrsv]|[Dd]ebian)</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>1:Debian GNU/Linux 12 \n \l</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -10408,22 +10413,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>FILE_CHECK</t>
+          <t>FILE_CONTENT_CHECK_NOT</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1.8.1.6</t>
+          <t>1.8.1.3</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/issue.net are configured</t>
+          <t>Ensure remote login warning banner is configured properly</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Run the following commands to set permissions on /etc/issue.net :  # chown root:root /etc/issue.net  # chmod u-x,go-wx /etc/issue.net</t>
+          <t>Edit the /etc/issue.net file with the appropriate contents according to your site policy, remove any instances of \m , \r , \s , \v or references to the OS platform  # echo 'Authorized uses only. All activity may be monitored and reported.' &amp;gt; /etc/issue.net</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10431,29 +10436,34 @@
           <t>/etc/issue.net</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>root</t>
-        </is>
-      </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>(\\[mrsv]|[Dd]ebian)</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>(\\[mrsv]|[Dd]ebian)</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>1:Debian GNU/Linux 12</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -10463,52 +10473,52 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FILE_CHECK</t>
+          <t>FILE_CONTENT_CHECK_NOT</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>5.1.2</t>
+          <t>5.2.8</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/crontab are configured</t>
+          <t>Ensure SSH IgnoreRhosts is enabled</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Run the following commands to set ownership and permissions on /etc/crontab :  # chown root:root /etc/crontab  # chmod og-rwx /etc/crontab</t>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  IgnoreRhosts yes  Default Value:  IgnoreRhosts yes</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>/etc/crontab</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>/etc/ssh/sshd_config</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>^(?i)[\s]*ignorerhosts[\s]+no[\s]*$(?-i)</t>
+        </is>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>^(?i)[\s]*ignorerhosts[\s](?-i)</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>grep: warning: ? at start of expressiongrep: warning: ? at start of expression</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -10518,52 +10528,47 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FILE_CHECK</t>
+          <t>FILE_CONTENT_CHECK_NOT</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>5.1.3</t>
+          <t>6.2.2</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/cron.hourly are configured</t>
+          <t>Ensure no legacy '+' entries exist in /etc/passwd</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Run the following commands to set ownership and permissions on /etc/cron.hourly :  # chown root:root /etc/cron.hourly  # chmod og-rwx /etc/cron.hourly</t>
+          <t>Remove any legacy '+' entries from /etc/passwd if they exist.</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>/etc/cron.hourly</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>/etc/passwd</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>077</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>root</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>755</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>^[\s]*\+:</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>^[\s]*\+:</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -10573,52 +10578,47 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FILE_CHECK</t>
+          <t>FILE_CONTENT_CHECK_NOT</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>5.1.4</t>
+          <t>6.2.4</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/cron.daily are configured</t>
+          <t>Ensure no legacy '+' entries exist in /etc/shadow</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Run the following commands to set ownership and permissions on /etc/cron.daily :  # chown root:root /etc/cron.daily  # chmod og-rwx /etc/cron.daily</t>
+          <t>Remove any legacy '+' entries from /etc/shadow if they exist.</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>/etc/cron.daily</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>/etc/shadow</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>077</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>root</t>
-        </is>
-      </c>
-      <c r="P203" t="inlineStr">
-        <is>
-          <t>755</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>^[\s]*\+:</t>
+        </is>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>^[\s]*\+:</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -10628,52 +10628,47 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FILE_CHECK</t>
+          <t>FILE_CONTENT_CHECK_NOT</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>5.1.5</t>
+          <t>6.2.5</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/cron.weekly are configured</t>
+          <t>Ensure no legacy '+' entries exist in /etc/group</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Run the following commands to set ownership and permissions on /etc/cron.weekly :  # chown root:root /etc/cron.weekly  # chmod og-rwx /etc/cron.weekly</t>
+          <t>Remove any legacy '+' entries from /etc/group if they exist.</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>/etc/cron.weekly</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>/etc/group</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>077</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>root</t>
-        </is>
-      </c>
-      <c r="P204" t="inlineStr">
-        <is>
-          <t>755</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>^[\s]*\+:</t>
+        </is>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>^[\s]*\+:</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -10688,22 +10683,22 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>5.1.6</t>
+          <t>1.5.1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/cron.monthly are configured</t>
+          <t>Ensure permissions on bootloader config are configured</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Run the following commands to set ownership and permissions on /etc/cron.monthly :  # chown root:root /etc/cron.monthly  # chmod og-rwx /etc/cron.monthly</t>
+          <t>Run the following commands to set permissions on your grub configuration:  # chown root:root /boot/grub/grub.cfg # chmod og-rwx /boot/grub/grub.cfg  Notes:  This recommendation is designed around the grub bootloader, if LILO or another bootloader is in use in your environment enact equivalent settings.  Replace /boot/grub/grub.cfg with the appropriate grub configuration file for your environment</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>/etc/cron.monthly</t>
+          <t>/boot/grub/grub.cfg</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -10713,7 +10708,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>077</t>
+          <t>177</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10723,12 +10718,12 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>600</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -10743,22 +10738,22 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>5.1.7</t>
+          <t>1.8.1.4</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/cron.d are configured</t>
+          <t>Ensure permissions on /etc/motd are configured</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Run the following commands to set ownership and permissions on /etc/cron.d :  # chown root:root /etc/cron.d  # chmod og-rwx /etc/cron.d</t>
+          <t>Run the following commands to set permissions on /etc/motd :  # chown root:root /etc/motd  # chmod u-x,go-wx /etc/motd</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>/etc/cron.d</t>
+          <t>/etc/motd</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -10768,7 +10763,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>077</t>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>644</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -10798,22 +10798,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>5.1.8</t>
+          <t>1.8.1.5</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Ensure at/cron is restricted to authorized users - at.allow</t>
+          <t>Ensure permissions on /etc/issue are configured</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Run the following commands to remove /etc/cron.deny, create /etc/cron.allow, and set permissions and ownership for /etc/cron.allow:  # rm /etc/cron.deny # touch /etc/cron.allow # chown root:root /etc/cron.allow # chmod g-wx,o-rwx /etc/cron.allow  If at is installed on the system: Run the following commands to remove /etc/at.deny; create /etc/at.allow, and set ownership and permissions on/etc/at.allow`:  # rm /etc/at.deny # touch /etc/at.allow # chown root:root /etc/at.allow # chmod g-wx,o-rwx /etc/at.allow</t>
+          <t>Run the following commands to set permissions on /etc/issue :  # chown root:root /etc/issue  # chmod u-x,go-wx /etc/issue</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>/etc/at.allow</t>
+          <t>/etc/issue</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10833,12 +10833,12 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>stat: cannot statx '/etc/at.allow': No such file or directory</t>
+          <t>644</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -10853,22 +10853,22 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>5.1.8</t>
+          <t>1.8.1.6</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Ensure at/cron is restricted to authorized users - cron.allow</t>
+          <t>Ensure permissions on /etc/issue.net are configured</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Run the following commands to remove /etc/cron.deny, create /etc/cron.allow, and set permissions and ownership for /etc/cron.allow:  # rm /etc/cron.deny # touch /etc/cron.allow # chown root:root /etc/cron.allow # chmod g-wx,o-rwx /etc/cron.allow  If at is installed on the system: Run the following commands to remove /etc/at.deny; create /etc/at.allow, and set ownership and permissions on/etc/at.allow`:  # rm /etc/at.deny # touch /etc/at.allow # chown root:root /etc/at.allow # chmod g-wx,o-rwx /etc/at.allow</t>
+          <t>Run the following commands to set permissions on /etc/issue.net :  # chown root:root /etc/issue.net  # chmod u-x,go-wx /etc/issue.net</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>/etc/cron.allow</t>
+          <t>/etc/issue.net</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10888,12 +10888,12 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>stat: cannot statx '/etc/cron.allow': No such file or directory</t>
+          <t>644</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>FAILED</t>
+          <t>PASSED</t>
         </is>
       </c>
     </row>
@@ -10908,22 +10908,22 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>5.2.1</t>
+          <t>5.1.2</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/ssh/sshd_config are configured</t>
+          <t>Ensure permissions on /etc/crontab are configured</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Run the following commands to set ownership and permissions on /etc/ssh/sshd_config:  # chown root:root /etc/ssh/sshd_config  # chmod og-rwx /etc/ssh/sshd_config</t>
+          <t>Run the following commands to set ownership and permissions on /etc/crontab :  # chown root:root /etc/crontab  # chmod og-rwx /etc/crontab</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>/etc/ssh/sshd_config</t>
+          <t>/etc/crontab</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>077</t>
+          <t>177</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10963,37 +10963,47 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>5.2.2</t>
+          <t>5.1.3</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Ensure permissions on SSH private host key files are configured</t>
+          <t>Ensure permissions on /etc/cron.hourly are configured</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Run the following commands to set ownership and permissions on the private SSH host key files  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key' -exec chown root:root {} \;  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key' -exec chmod 0600 {} \;</t>
+          <t>Run the following commands to set ownership and permissions on /etc/cron.hourly :  # chown root:root /etc/cron.hourly  # chmod og-rwx /etc/cron.hourly</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>/etc/ssh/*key</t>
+          <t>/etc/cron.hourly</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>root</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>077</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>root</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>600600600</t>
+          <t>755</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -11008,37 +11018,47 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>5.2.3</t>
+          <t>5.1.4</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Ensure permissions on SSH public host key files are configured</t>
+          <t>Ensure permissions on /etc/cron.daily are configured</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Run the following commands to set permissions and ownership on the SSH host public key files  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key.pub' -exec chmod go-wx {} \;  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key.pub' -exec chown root:root {} \;</t>
+          <t>Run the following commands to set ownership and permissions on /etc/cron.daily :  # chown root:root /etc/cron.daily  # chmod og-rwx /etc/cron.daily</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>/etc/ssh/*key.pub</t>
+          <t>/etc/cron.daily</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>root</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>077</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>root</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>644644644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -11053,22 +11073,22 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>6.1.2</t>
+          <t>5.1.5</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/passwd are configured</t>
+          <t>Ensure permissions on /etc/cron.weekly are configured</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Run the following command to set permissions on /etc/passwd:  # chown root:root /etc/passwd # chmod 644 /etc/passwd</t>
+          <t>Run the following commands to set ownership and permissions on /etc/cron.weekly :  # chown root:root /etc/cron.weekly  # chmod og-rwx /etc/cron.weekly</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>/etc/passwd</t>
+          <t>/etc/cron.weekly</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -11078,7 +11098,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>077</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -11088,12 +11108,12 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -11108,22 +11128,22 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>6.1.3</t>
+          <t>5.1.6</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/gshadow- are configured</t>
+          <t>Ensure permissions on /etc/cron.monthly are configured</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Run the one of the following chown commands as appropriate and the chmod to set permissions on /etc/gshadow- :  # chown root:root /etc/gshadow- # chown root:shadow /etc/gshadow-  # chmod o-rwx,g-wx /etc/gshadow-</t>
+          <t>Run the following commands to set ownership and permissions on /etc/cron.monthly :  # chown root:root /etc/cron.monthly  # chmod og-rwx /etc/cron.monthly</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>/etc/gshadow-</t>
+          <t>/etc/cron.monthly</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -11133,22 +11153,22 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>077</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>root" || "shadow</t>
+          <t>root</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>755</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -11163,22 +11183,22 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>6.1.4</t>
+          <t>5.1.7</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/shadow are configured</t>
+          <t>Ensure permissions on /etc/cron.d are configured</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Run the one following commands to set permissions on /etc/shadow:  # chmod o-rwx,g-wx /etc/shadow  # chown root:shadow /etc/shadow</t>
+          <t>Run the following commands to set ownership and permissions on /etc/cron.d :  # chown root:root /etc/cron.d  # chmod og-rwx /etc/cron.d</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>/etc/shadow</t>
+          <t>/etc/cron.d</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -11188,22 +11208,22 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>077</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>shadow</t>
+          <t>root</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>755</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -11218,22 +11238,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>6.1.5</t>
+          <t>5.1.8</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/group are configured</t>
+          <t>Ensure at/cron is restricted to authorized users - at.allow</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Run the following command to set permissions on /etc/group:  # chown root:root /etc/group  # chmod 644 /etc/group</t>
+          <t>Run the following commands to remove /etc/cron.deny, create /etc/cron.allow, and set permissions and ownership for /etc/cron.allow:  # rm /etc/cron.deny # touch /etc/cron.allow # chown root:root /etc/cron.allow # chmod g-wx,o-rwx /etc/cron.allow  If at is installed on the system: Run the following commands to remove /etc/at.deny; create /etc/at.allow, and set ownership and permissions on/etc/at.allow`:  # rm /etc/at.deny # touch /etc/at.allow # chown root:root /etc/at.allow # chmod g-wx,o-rwx /etc/at.allow</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>/etc/group</t>
+          <t>/etc/at.allow</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -11243,7 +11263,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -11253,12 +11273,12 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>stat: cannot statx '/etc/at.allow': No such file or directory</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -11273,22 +11293,22 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>6.1.6</t>
+          <t>5.1.8</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/passwd- are configured</t>
+          <t>Ensure at/cron is restricted to authorized users - cron.allow</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Run the following command to set permissions on /etc/passwd- :  # chown root:root /etc/passwd-  # chmod u-x,go-rwx /etc/passwd-</t>
+          <t>Run the following commands to remove /etc/cron.deny, create /etc/cron.allow, and set permissions and ownership for /etc/cron.allow:  # rm /etc/cron.deny # touch /etc/cron.allow # chown root:root /etc/cron.allow # chmod g-wx,o-rwx /etc/cron.allow  If at is installed on the system: Run the following commands to remove /etc/at.deny; create /etc/at.allow, and set ownership and permissions on/etc/at.allow`:  # rm /etc/at.deny # touch /etc/at.allow # chown root:root /etc/at.allow # chmod g-wx,o-rwx /etc/at.allow</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>/etc/passwd-</t>
+          <t>/etc/cron.allow</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -11298,7 +11318,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11308,12 +11328,12 @@
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>stat: cannot statx '/etc/cron.allow': No such file or directory</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -11328,22 +11348,22 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>6.1.7</t>
+          <t>5.2.1</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/shadow- are configured</t>
+          <t>Ensure permissions on /etc/ssh/sshd_config are configured</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Run the following commands to set permissions on /etc/shadow-:  # chown root:shadow /etc/shadow-  # chmod u-x,go-rwx /etc/shadow-</t>
+          <t>Run the following commands to set ownership and permissions on /etc/ssh/sshd_config:  # chown root:root /etc/ssh/sshd_config  # chmod og-rwx /etc/ssh/sshd_config</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>/etc/shadow-</t>
+          <t>/etc/ssh/sshd_config</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -11353,22 +11373,22 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>077</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>root" || "shadow</t>
+          <t>root</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>644</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
-          <t>PASSED</t>
+          <t>FAILED</t>
         </is>
       </c>
     </row>
@@ -11383,42 +11403,32 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>6.1.8</t>
+          <t>5.2.2</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/group- are configured</t>
+          <t>Ensure permissions on SSH private host key files are configured</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Run the following command to set permissions on /etc/group- :  # chown root:root /etc/group-  # chmod u-x,go-rwx /etc/group-</t>
+          <t>Run the following commands to set ownership and permissions on the private SSH host key files  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key' -exec chown root:root {} \;  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key' -exec chmod 0600 {} \;</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>/etc/group-</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>/etc/ssh/*key</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>177</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>600600600</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
@@ -11438,42 +11448,32 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>6.1.9</t>
+          <t>5.2.3</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Ensure permissions on /etc/gshadow are configured</t>
+          <t>Ensure permissions on SSH public host key files are configured</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Run the following commands to set permissions on /etc/gshadow:  # chown root:shadow /etc/gshadow  # chmod o-rwx,g-wx /etc/gshadow</t>
+          <t>Run the following commands to set permissions and ownership on the SSH host public key files  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key.pub' -exec chmod go-wx {} \;  # find /etc/ssh -xdev -type f -name 'ssh_host_*_key.pub' -exec chown root:root {} \;</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>/etc/gshadow</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>root</t>
+          <t>/etc/ssh/*key.pub</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>root" || "shadow</t>
+          <t>133</t>
         </is>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>644644644</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
@@ -11493,35 +11493,3870 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
+          <t>6.1.2</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/passwd are configured</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Run the following command to set permissions on /etc/passwd:  # chown root:root /etc/passwd # chmod 644 /etc/passwd</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>/etc/passwd</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>1</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>6.1.3</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/gshadow- are configured</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Run the one of the following chown commands as appropriate and the chmod to set permissions on /etc/gshadow- :  # chown root:root /etc/gshadow- # chown root:shadow /etc/gshadow-  # chmod o-rwx,g-wx /etc/gshadow-</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>/etc/gshadow-</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>root" || "shadow</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>1</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>6.1.4</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/shadow are configured</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Run the one following commands to set permissions on /etc/shadow:  # chmod o-rwx,g-wx /etc/shadow  # chown root:shadow /etc/shadow</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>/etc/shadow</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>shadow</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>1</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>6.1.5</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/group are configured</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Run the following command to set permissions on /etc/group:  # chown root:root /etc/group  # chmod 644 /etc/group</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>/etc/group</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>1</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>6.1.6</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/passwd- are configured</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Run the following command to set permissions on /etc/passwd- :  # chown root:root /etc/passwd-  # chmod u-x,go-rwx /etc/passwd-</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>/etc/passwd-</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>1</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>6.1.7</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/shadow- are configured</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Run the following commands to set permissions on /etc/shadow-:  # chown root:shadow /etc/shadow-  # chmod u-x,go-rwx /etc/shadow-</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>/etc/shadow-</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>root" || "shadow</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>1</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>6.1.8</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/group- are configured</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Run the following command to set permissions on /etc/group- :  # chown root:root /etc/group-  # chmod u-x,go-rwx /etc/group-</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>/etc/group-</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>1</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>6.1.9</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Ensure permissions on /etc/gshadow are configured</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Run the following commands to set permissions on /etc/gshadow:  # chown root:shadow /etc/gshadow  # chmod o-rwx,g-wx /etc/gshadow</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>/etc/gshadow</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>root</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>root" || "shadow</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>1</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>FILE_CHECK</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
           <t>6.2.10</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>Ensure users' dot files are not group or world writable</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>Making global modifications to users' files without alerting the user community can result in unexpected outages and unhappy users. Therefore, it is recommended that a monitoring policy be established to report user dot file permissions and determine the action to be taken in accordance with site policy.  Notes:  On some distributions the /sbin/nologin should be replaced with /usr/sbin/nologin.</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>~/.[!.]*</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="H228" t="inlineStr">
         <is>
           <t>022</t>
         </is>
       </c>
-      <c r="P220" t="inlineStr">
+      <c r="P228" t="inlineStr">
         <is>
           <t>600644700600644700</t>
         </is>
       </c>
-      <c r="Q220" t="inlineStr">
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>1</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>1.5.2</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Ensure bootloader password is set - set superusers</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Create an encrypted password with grub-mkpasswd-pbkdf2:  # grub-mkpasswd-pbkdf2 Enter password: &lt;password&gt; Reenter password: &lt;password&gt; PBKDF2 hash of your password is &lt;encrypted-password&gt;  Add the following into a custom /etc/grub.d configuration file:  cat &amp;lt;&lt;eof password_pbkdf2="" set="" superusers="&amp;lt;username&amp;gt;"&gt; &lt;encrypted-password&gt; EOF  The superuser/user information and password should not be contained in the /etc/grub.d/00_header file as this file could be overwritten in a package update. If there is a requirement to be able to boot/reboot without entering the password, edit /etc/grub.d/10_linux and add --unrestricted to the line CLASS= Example:  CLASS='--class gnu-linux --class gnu --class os --unrestricted'  Run the following command to update the grub2 configuration:  # update-grub  Impact:  If password protection is enabled, only the designated superuser can edit a Grub 2 menu item by pressing 'e' or access the GRUB 2 command line by pressing 'c'  If GRUB 2 is set up to boot automatically to a password-protected menu entry the user has no option to back out of the password prompt to select another menu entry. Holding the SHIFT key will not display the menu in this case. The user must enter the correct username and password. If unable, the configuration files will have to be edited via the LiveCD or other means to fix the problem  You can add --unrestricted to the menu entries to allow the system to boot without entering a password. Password will still be required to edit menu items.  More Information: https://help.ubuntu.com/community/Grub2/Passwords  Notes: This recommendation is designed around the grub bootloader, if LILO or another bootloader is in use in your environment enact equivalent settings.  Replace /boot/grub/grub.cfg with the appropriate grub configuration file for your environment.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>/boot/grub/grub.cfg</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>^[\s]*set[\s]*superusers[\s]*=\".+\"*$</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>^[\s]*set[\s]*superusers[\s]*=</t>
+        </is>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>1</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1.5.2</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Ensure bootloader password is set - password_pbkdf2</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Create an encrypted password with grub-mkpasswd-pbkdf2:  # grub-mkpasswd-pbkdf2 Enter password: &lt;password&gt; Reenter password: &lt;password&gt; PBKDF2 hash of your password is &lt;encrypted-password&gt;  Add the following into a custom /etc/grub.d configuration file:  cat &amp;lt;&lt;eof password_pbkdf2="" set="" superusers="&amp;lt;username&amp;gt;"&gt; &lt;encrypted-password&gt; EOF  The superuser/user information and password should not be contained in the /etc/grub.d/00_header file as this file could be overwritten in a package update. If there is a requirement to be able to boot/reboot without entering the password, edit /etc/grub.d/10_linux and add --unrestricted to the line CLASS= Example:  CLASS='--class gnu-linux --class gnu --class os --unrestricted'  Run the following command to update the grub2 configuration:  # update-grub  Impact:  If password protection is enabled, only the designated superuser can edit a Grub 2 menu item by pressing 'e' or access the GRUB 2 command line by pressing 'c'  If GRUB 2 is set up to boot automatically to a password-protected menu entry the user has no option to back out of the password prompt to select another menu entry. Holding the SHIFT key will not display the menu in this case. The user must enter the correct username and password. If unable, the configuration files will have to be edited via the LiveCD or other means to fix the problem  You can add --unrestricted to the menu entries to allow the system to boot without entering a password. Password will still be required to edit menu items.  More Information: https://help.ubuntu.com/community/Grub2/Passwords  Notes: This recommendation is designed around the grub bootloader, if LILO or another bootloader is in use in your environment enact equivalent settings.  Replace /boot/grub/grub.cfg with the appropriate grub configuration file for your environment.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>/boot/grub/grub.cfg</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>^[\s]*password_pbkdf2[\s]+[^\s]+[\s]+[^\s]+[\s]*$</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>^[\s]*password</t>
+        </is>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>1</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>1.6.4</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Ensure core dumps are restricted - storage</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Add the following line to /etc/security/limits.conf or a /etc/security/limits.d/* file:  * hard core 0  Set the following parameter in /etc/sysctl.conf or a /etc/sysctl.d/* file:  fs.suid_dumpable = 0  Run the following command to set the active kernel parameter:  # sysctl -w fs.suid_dumpable=0  If systemd-coredump is installed: edit /etc/systemd/coredump.conf and add/modify the following lines:  Storage=none ProcessSizeMax=0  Run the command:  systemctl daemon-reload</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>/etc/systemd/coredump.conf</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>^[\s]*Storage[\s]*=[\s]*none[\s]*$</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>^[\s]*Storage[\s]*=</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>grep: /etc/systemd/coredump.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>1</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>1.6.4</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Ensure core dumps are restricted - processsizemax</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Add the following line to /etc/security/limits.conf or a /etc/security/limits.d/* file:  * hard core 0  Set the following parameter in /etc/sysctl.conf or a /etc/sysctl.d/* file:  fs.suid_dumpable = 0  Run the following command to set the active kernel parameter:  # sysctl -w fs.suid_dumpable=0  If systemd-coredump is installed: edit /etc/systemd/coredump.conf and add/modify the following lines:  Storage=none ProcessSizeMax=0  Run the command:  systemctl daemon-reload</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>/etc/systemd/coredump.conf</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>^[\s]*ProcessSizeMax[\s]*=[\s]*0[\s]*$</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>^[\s]*ProcessSizeMax[\s]*=</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>grep: /etc/systemd/coredump.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>1.7.1.2</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Ensure AppArmor is enabled in the bootloader configuration - apparmor=1</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>edit /etc/default/grub and add the appermor=1 and security=apparmor parameters to the GRUB_CMDLINE_LINUX= line  GRUB_CMDLINE_LINUX='apparmor=1 security=apparmor'  Run the following command to update the grub2 configuration:  # update-grub  Notes:  This recommendation is designed around the grub bootloader, if LILO or another bootloader is in use in your environment enact equivalent settings.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>/boot/grub/grub.cfg</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>[\s]*[Aa][Pp][Pp][Aa][Rr][Mm][Oo][Rr][\s]*=[\s]*1</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>^[\s]*linux.*</t>
+        </is>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1.7.1.2</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Ensure AppArmor is enabled in the bootloader configuration - security=apparmor</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>edit /etc/default/grub and add the appermor=1 and security=apparmor parameters to the GRUB_CMDLINE_LINUX= line  GRUB_CMDLINE_LINUX='apparmor=1 security=apparmor'  Run the following command to update the grub2 configuration:  # update-grub  Notes:  This recommendation is designed around the grub bootloader, if LILO or another bootloader is in use in your environment enact equivalent settings.</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>/boot/grub/grub.cfg</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>[\s]*[Ss][Ee][Cc][Uu][Rr][Ii][Tt][Yy][\s]*=[\s]*[Aa][Pp][Pp][Aa][Rr][Mm][Oo][Rr]</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>^[\s]*linux.*</t>
+        </is>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>1.8.2</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Ensure GDM login banner is configured - banner message enabled</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Edit or create the file /etc/gdm3/greeter.dconf-defaults and add the following:  [org/gnome/login-screen] banner-message-enable=true banner-message-text='Authorized uses only. All activity may be monitored and reported.'  Notes:  Additional options and sections may appear in the /etc/dconf/db/gdm.d/01-banner-message file.  If a different GUI login service is in use, consult your documentation and apply an equivalent banner.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>/etc/gdm3/greeter.dconf-defaults</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>^[\s]*banner-message-enable[\s]*=[\s]*true[\s]*$</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>^[\s]*banner-message-enable[\s]*=</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2.2.1.2</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Ensure systemd-timesyncd is configured - RootDistanceMax</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Run the following command to enable systemd-timesyncd  # systemctl enable systemd-timesyncd.service  edit the file /etc/systemd/timesyncd.conf and add/modify the following lines:  NTP=0.debian.pool.ntp.org 1.debian.pool.ntp.org #Servers listed should be In Accordence With Local Policy  FallbackNTP=2.debian.pool.ntp.org 3.debian.pool.ntp.org #Servers listed should be In Accordence With Local Policy  RootDistanceMax=1 #should be In Accordence With Local Policy  Run the following commands to start systemd-timesyncd.service  # systemctl start systemd-timesyncd.service  # timedatectl set-ntp true  Notes:  some versions of systemd have been compiled without systemd-timesycnd. On these distributions, chrony or NTP should be used instead of systemd-timesycnd.  Not all options are avalible on all versions of systemd-timesyncd</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>/etc/systemd/timesyncd.conf</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>^[\s]*RootDistanceMaxSec=@ROOT_DISTANCE_MAX@</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>^[\s]*RootDistanceMaxSec</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2.2.1.3</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Ensure chrony is configured - ntp server</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Add or edit server or pool lines to /etc/chrony.conf as appropriate:  server &lt;remote-server&gt;  Configure chrony to run as the chrony user by configuring the appropriate startup script for your distribution. Startup scripts are typically stored in /etc/init.d or /etc/systemd.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>/etc/chrony/chrony.conf</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>^[\s]*(server|pool)[\s]+(?:@NTP_SERVER@|@FALLBACK_NTP_SERVER@)</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>^[\s]*(server|pool)[\s]+(?:@NTP_SERVER@|@FALLBACK_NTP_SERVER@)</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>grep: warning: ? at start of expressiongrep: /etc/chrony/chrony.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2.2.1.4</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Ensure ntp is configured - restrict -4</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Add or edit restrict lines in /etc/ntp.conf to match the following:  restrict -4 default kod nomodify notrap nopeer noquery restrict -6 default kod nomodify notrap nopeer noquery  Add or edit server or pool lines to /etc/ntp.conf as appropriate:  server &lt;remote-server&gt;  Configure ntp to run as the ntp user by adding or editing the /etc/init.d/ntp file:  RUNASUSER=ntp</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>/etc/ntp.conf</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>^[\s]*restrict[\s]+(-4)?[\s]*(,?default[\s]*|,?kod[\s]*|,?nomodify[\s]*|,?notrap[\s]*|,?nopeer[\s]*|,?noquery[\s]*){6}$</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>^[\s]*restrict[\s]+(-4)?[\s]*default</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>grep: /etc/ntp.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2.2.1.4</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Ensure ntp is configured - restrict -6</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Add or edit restrict lines in /etc/ntp.conf to match the following:  restrict -4 default kod nomodify notrap nopeer noquery restrict -6 default kod nomodify notrap nopeer noquery  Add or edit server or pool lines to /etc/ntp.conf as appropriate:  server &lt;remote-server&gt;  Configure ntp to run as the ntp user by adding or editing the /etc/init.d/ntp file:  RUNASUSER=ntp</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>/etc/ntp.conf</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>^[\s]*restrict[\s]+-6[\s]+(,?default[\s]*|,?kod[\s]*|,?nomodify[\s]*|,?notrap[\s]*|,?nopeer[\s]*|,?noquery[\s]*){6}$</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>^[\s]*restrict[\s]+-6[\s][^:]</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>grep: /etc/ntp.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2.2.1.4</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Ensure ntp is configured - ntp server</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Add or edit restrict lines in /etc/ntp.conf to match the following:  restrict -4 default kod nomodify notrap nopeer noquery restrict -6 default kod nomodify notrap nopeer noquery  Add or edit server or pool lines to /etc/ntp.conf as appropriate:  server &lt;remote-server&gt;  Configure ntp to run as the ntp user by adding or editing the /etc/init.d/ntp file:  RUNASUSER=ntp</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>/etc/ntp.conf</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>^[\s]*server[\s]+@NTP_SERVER@[\s]*$</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>^[\s]*server[\s]+@NTP_SERVER@[\s]*$</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>grep: /etc/ntp.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2.2.1.4</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Ensure ntp is configured - RUNASUSER</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Add or edit restrict lines in /etc/ntp.conf to match the following:  restrict -4 default kod nomodify notrap nopeer noquery restrict -6 default kod nomodify notrap nopeer noquery  Add or edit server or pool lines to /etc/ntp.conf as appropriate:  server &lt;remote-server&gt;  Configure ntp to run as the ntp user by adding or editing the /etc/init.d/ntp file:  RUNASUSER=ntp</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>/etc/init.d/ntp</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>^[\s]*RUNASUSER[\s]*=[\s]*ntp[\s]*$</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>^[\s]*RUNASUSER[\s]*=</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>grep: /etc/init.d/ntp: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2.2.15</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Ensure mail transfer agent is configured for local-only mode - /etc/exim4/update-exim4.conf.conf</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Edit /etc/exim4/update-exim4.conf.conf and and or modify following lines to look like the lines below:  dc_eximconfig_configtype='local' dc_local_interfaces='127.0.0.1 ; ::1' dc_readhost='' dc_relay_domains='' dc_minimaldns='false' dc_relay_nets='' dc_smarthost='' dc_use_split_config='false' dc_hide_mailname='' dc_mailname_in_oh='true' dc_localdelivery='mail_spool'  Restart exim4:  # systemctl restart exim4  Notes:  This recommendation is designed around the exim4 mail server, depending on your environment you may have an alternative MTA installed such as sendmail. If this is the case consult the documentation for your installed MTA to configure the recommended state.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>/etc/exim4/update-exim4.conf.conf</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>^[\s]*dc_local_interfaces[\s]*=[\s]*'[\s]*127\.0\.0\.1[\s]*;[\s]*::1[\s]*'[\s]*$</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>^[\s]*dc_local_interfaces[\s]*=[\s]*</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>grep: /etc/exim4/update-exim4.conf.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'mail.* -/var/log/mail'</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>mail\.\*[\s]+-/var/log/mail(\.log)?[\s]*$</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>^[\s]*mail\.\*</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'mail.info -/var/log/mail.info'</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>mail\.info[\s]+-/var/log/mail\.info[\s]*$</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>^[\s]*mail\.info</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'mail.warning -/var/log/mail.warn'</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>mail\.warning[\s]+-/var/log/mail\.warn[\s]*$</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>^[\s]*mail\.warning</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'mail.err /var/log/mail.err'</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>mail\.err[\s]+/var/log/mail\.err[\s]*$</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>^[\s]*mail\.err</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'news.crit -/var/log/news/news.crit'</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>news\.crit[\s]+-/var/log/news/news\.crit[\s]*$</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>^[\s]*news\.crit</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'news.err -/var/log/news/news.err'</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>news\.err[\s]+-/var/log/news/news\.err[\s]*$</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>^[\s]*news\.err</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'news.notice -/var/log/news/news.notice'</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>news\.notice[\s]+-/var/log/news/news\.notice[\s]*$</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>^[\s]*news\.notice</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - '*.=warning;*.=err -/var/log/warn'</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>\*\.=warning;\*\.=err[\s]+-/var/log/warn[\s]*$</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>^[\s]*\*\.=warning;\*\.=err</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - '*.crit /var/log/warn'</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>\*\.crit[\s]+/var/log/warn[\s]*$</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>^[\s]*\*\.crit</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - '*.*;mail.none;news.none -/var/log/messages'</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>\*\.\*;mail\.none;news\.none[\s]+-/var/log/messages[\s]*$</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>^[\s]*\*\.\*;mail\.none;news\.none</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'local0,local1.* -/var/log/localmessages'</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>local0,local1\.\*[\s]+-/var/log/localmessages[\s]*$</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>^[\s]*local0,local1</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'local2,local3.* -/var/log/localmessages'</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>local2,local3\.\*[\s]+-/var/log/localmessages[\s]*$</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>^[\s]*local2,local3</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'local4,local5.* -/var/log/localmessages'</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>local4,local5\.\*[\s]+-/var/log/localmessages[\s]*$</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>^[\s]*local4,local5</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>4.2.1.3</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Ensure logging is configured - 'local6,local7.* -/var/log/localmessages'</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Edit the following lines in the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files as appropriate for your environment:  *.emerg                                  :omusrmsg:* auth,authpriv.*                          /var/log/auth.log mail.*                                  -/var/log/mail mail.info                               -/var/log/mail.info mail.warning                            -/var/log/mail.warn mail.err                                 /var/log/mail.err news.crit                               -/var/log/news/news.crit news.err                                -/var/log/news/news.err news.notice                             -/var/log/news/news.notice *.=warning;*.=err                       -/var/log/warn *.crit                                   /var/log/warn *.*;mail.none;news.none                 -/var/log/messages local0,local1.*                         -/var/log/localmessages local2,local3.*                         -/var/log/localmessages local4,local5.*                         -/var/log/localmessages local6,local7.*                         -/var/log/localmessages  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>local6,local7\.\*[\s]+-/var/log/localmessages[\s]*$</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>^[\s]*local6,local7</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>4.2.1.5</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Ensure rsyslog is configured to send logs to a remote log host</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Edit the /etc/rsyslog.conf and /etc/rsyslog.d/*.conf files and add one of the following lines: Newer syntax:  &lt;files log="" remote="" sent="" server="" the="" to=""&gt; action(type='omfwd' target='&lt;fqdn ip="" loghost="" of="" or=""&gt;' port='&lt;port number=""&gt;' protocol='tcp'                                         action.resumeRetryCount='&lt;number of="" re-tries=""&gt;'                                         queue.type='linkList' queue.size=&lt;number messages="" of="" queue="" to=""&gt;')  Example:  *.* action(type='omfwd' target='192.168.2.100' port'514' protocol='tcp'            action.resumeRetryCount='100'            queue.type='linkList' queue.size='1000')  Older syntax:  *.* @@&lt;fqdn ip="" loghost="" of="" or=""&gt;  Example:  *.* @@192.168.2.100  Run the following command to reload the rsyslog configuration:  # systemctl reload rsyslog</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>/etc/rsyslog.conf /etc/rsyslog.d/*.conf</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>^\*\.\*[^I][^I]*\@\@@SYSLOG_SERVER@</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>^\*\.\*[^I][^I]*\@\@</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>grep: /etc/rsyslog.conf: No such file or directorygrep: /etc/rsyslog.d/*.conf: No such file or directory</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>4.2.2.1</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Ensure journald is configured to send logs to rsyslog</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Edit the /etc/systemd/journald.conf file and add the following line:  ForwardToSyslog=yes</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>/etc/systemd/journald.conf</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>^[\s]*ForwardToSyslog[\s]*=[\s]*['\"]?yes[\"']?[\s]*$</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>^[\s]*ForwardToSyslog[\s]*=</t>
+        </is>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>4.2.2.2</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Ensure journald is configured to compress large log files</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Edit the /etc/systemd/journald.conf file and add the following line:  Compress=yes</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>/etc/systemd/journald.conf</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>^[\s]*Compress[\s]*=[\s]*yes[\s]*$</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>^[\s]*Compress[\s]*=</t>
+        </is>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>4.2.2.3</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Ensure journald is configured to write logfiles to persistent disk</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Edit the /etc/systemd/journald.conf file and add the following line:  Storage=persistent</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>/etc/systemd/journald.conf</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>^[\s]*Storage[\s]*=[\s]*persistent[\s]*$</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>^[\s]*Storage[\s]*=</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Ensure logrotate assigns appropriate permissions</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Edit /etc/logrotate.conf and update the create line to read 0640 or more restrictive, following local site policy Example      create 0640 root utmp</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>/etc/logrotate.conf /etc/logrotate.d/*</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>(0)?[0-6][04]0</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>^[\s]*create[\s]+[\S]+</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>5.2.4</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Ensure SSH Protocol is not set to 1</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  Protocol 2  Notes:  This command not longer exists in newer versions of SSH. This check is still being included for systems that may be running an older version of SSH. As of openSSH version 7.4 this parameter will not cause an issue when included.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)Protocol(?-i)[\s]+2[\s]*$</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)Protocol(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>5.2.5</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Ensure SSH LogLevel is appropriate</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  LogLevel VERBOSE  OR  LogLevel INFO  Default Value:  LogLevel INFO</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)LogLevel(?-i)[\s]+(INFO|VERBOSE)[\s]*$</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)LogLevel(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>5.2.7</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Ensure SSH MaxAuthTries is set to 4 or less</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  MaxAuthTries 4  Default Value:  MaxAuthTries 6</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)MaxAuthTries(?-i)[\s]+[1-4][\s]*$</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)MaxAuthTries(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>5.2.9</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Ensure SSH HostbasedAuthentication is disabled</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  HostbasedAuthentication no  Default Value:  HostbasedAuthentication no</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)HostbasedAuthentication(?-i)[\s]+no[\s]*$</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)HostbasedAuthentication(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>5.2.10</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Ensure SSH root login is disabled</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  PermitRootLogin no  Default Value:  PermitRootLogin without-password</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)PermitRootLogin(?-i)[\s]+no[\s]*$</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)PermitRootLogin(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>5.2.11</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Ensure SSH PermitEmptyPasswords is disabled</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  PermitEmptyPasswords no  Default Value:  PermitEmptyPasswords no</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)PermitEmptyPasswords(?-i)[\s]+no[\s]*$</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)PermitEmptyPasswords(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>5.2.12</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Ensure SSH PermitUserEnvironment is disabled</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  PermitUserEnvironment no  Default Value:  PermitUserEnvironment no</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)PermitUserEnvironment(?-i)[\s]+no[\s]*$</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)PermitUserEnvironment(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>5.2.18</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Ensure SSH access is limited</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set one or more of the parameter as follows:  AllowUsers &lt;userlist&gt;  AllowGroups &lt;grouplist&gt;  DenyUsers &lt;userlist&gt;  DenyGroups &lt;grouplist&gt;</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)(Allow|Deny)(Users|Groups)(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)(Allow|Deny)(Users|Groups)(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>5.2.19</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Ensure SSH warning banner is configured</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  Banner /etc/issue.net</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)Banner(?-i)[\s]+/etc/issue\.net[\s]*$</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)Banner(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>5.2.20</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Ensure SSH PAM is enabled</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  UsePAM yes  Impact:  If UsePAM is enabled, you will not be able to run sshd(8) as a non-root user.  Default Value:  usePAM yes</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)usePAM(?-i)[\s]+yes[\s]*$</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)usePAM(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>5.2.22</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Ensure SSH MaxStartups is configured</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  maxstartups 10:30:60  Notes:  Local site policy may be more restrictive</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)MaxStartups(?-i)[\s]+10:30:60[\s]*$</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)MaxStartups(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>5.2.23</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Ensure SSH MaxSessions is limited</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Edit the /etc/ssh/sshd_config file to set the parameter as follows:  MaxSessions 10  Default Value:  MaxSessions 10  Notes:  Local site policy may be more restrictive</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>/etc/ssh/sshd_config</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)MaxSessions(?-i)[\s]+\(10|[1-9]\)[\s]*$</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>^[\s]*(?i)MaxSessions(?-i)[\s]</t>
+        </is>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>5.3.1</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Ensure password creation requirements are configured - retry=3</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Run the following command to install the pam_pwquality module:  apt install libpam-pwquality  Edit the file /etc/security/pwquality.conf and add or modify the following line for password length to conform to site policy  minlen = 14  Edit the file /etc/security/pwquality.conf and add or modify the following line for password complexity to conform to site policy  minclass = 4  OR  dcredit = -1 ucredit = -1 ocredit = -1 lcredit = -1  Edit the /etc/pam.d/common-password file to include the appropriate options for pam_pwquality.so and to conform to site policy:  password requisite pam_pwquality.so retry=3  Notes:  Additional module options may be set, recommendation requirements only cover including try_first_pass and minlen set to 14 or more.  Settings in /etc/security/pwquality.conf must use spaces around the = symbol.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>/etc/pam.d/common-password</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>[\s]+retry[\s]*=[\s]*@PW_RETRY@</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>^[\s]*password[\s]+requisite[\s]+pam_pwquality\.so[\s]</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>5.3.1</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Ensure password creation requirements are configured - minlen</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Run the following command to install the pam_pwquality module:  apt install libpam-pwquality  Edit the file /etc/security/pwquality.conf and add or modify the following line for password length to conform to site policy  minlen = 14  Edit the file /etc/security/pwquality.conf and add or modify the following line for password complexity to conform to site policy  minclass = 4  OR  dcredit = -1 ucredit = -1 ocredit = -1 lcredit = -1  Edit the /etc/pam.d/common-password file to include the appropriate options for pam_pwquality.so and to conform to site policy:  password requisite pam_pwquality.so retry=3  Notes:  Additional module options may be set, recommendation requirements only cover including try_first_pass and minlen set to 14 or more.  Settings in /etc/security/pwquality.conf must use spaces around the = symbol.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>/etc/security/pwquality.conf</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>^[\s]*minlen[\s]*=[\s]*@PW_MINLEN@[\s]*$</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>^[\s]*minlen[\s]*=</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>5.3.2</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Ensure lockout for failed password attempts is configured - pam_deny.so</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Edit the /etc/pam.d/common-auth file and add the auth line below:  auth required pam_tally2.so onerr=fail audit silent deny=5 unlock_time=900  Edit the /etc/pam.d/common-account file and add the account lines bellow:  account     requisite    pam_deny.so account     required     pam_tally2.so  Note: If a user has been locked out because they have reached the maximum consecutive failure count defined by deny= in the pam_tally2.so module, the user can be unlocked by issuing the command /sbin/pam_tally2 -u &lt;username&gt; --reset. This command sets the failed count to 0, effectively unlocking the user.  Notes:  BUG In pam_tally2.so  To work around this issue you have to add pam_tally2 to the account section account required pam_tally2.so for the counter to reset to 0 when using sudo  Use of the 'audit' keyword may log credentials in the case of user error during authentication. This risk should be evaluated in the context of the site policies of your organization.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>/etc/pam.d/common-account</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>^[\s]*account[\s]+requisite[\s]+pam_deny\.so[\s]*$</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>^[\s]*account[\s]+requisite[\s]+pam_deny\.so[\s]*</t>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>5.3.2</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Ensure lockout for failed password attempts is configured - pam_tally2.so</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Edit the /etc/pam.d/common-auth file and add the auth line below:  auth required pam_tally2.so onerr=fail audit silent deny=5 unlock_time=900  Edit the /etc/pam.d/common-account file and add the account lines bellow:  account     requisite    pam_deny.so account     required     pam_tally2.so  Note: If a user has been locked out because they have reached the maximum consecutive failure count defined by deny= in the pam_tally2.so module, the user can be unlocked by issuing the command /sbin/pam_tally2 -u &lt;username&gt; --reset. This command sets the failed count to 0, effectively unlocking the user.  Notes:  BUG In pam_tally2.so  To work around this issue you have to add pam_tally2 to the account section account required pam_tally2.so for the counter to reset to 0 when using sudo  Use of the 'audit' keyword may log credentials in the case of user error during authentication. This risk should be evaluated in the context of the site policies of your organization.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>/etc/pam.d/common-account</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>^[\s]*account[\s]+required[\s]+pam_tally2\.so[\s]*$</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>^[\s]*account[\s]+required[\s]+pam_tally2\.so[\s]*</t>
+        </is>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>5.3.3</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Ensure password reuse is limited</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Edit the /etc/pam.d/common-password file to include the remember option and conform to site policy as shown:  password required pam_pwhistory.so remember=5  Notes:  Additional module options may be set, recommendation only covers those listed here.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>/etc/pam.d/common-password</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>remember=([5-9]|1[0-9]|[2-9][0-9])</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>^[\s]*password[\s]*required[\s]*pam_pwhistory\.so</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>5.3.4</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Ensure password hashing algorithm is SHA-512</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Edit the /etc/pam.d/common-password file to include the sha512 option for pam_unix.so as shown:  password [success=1 default=ignore] pam_unix.so sha512  Notes:  Consult your documentation for the appropriate PAM file and module.  Additional module options may be set, recommendation only covers those listed here.  If it is determined that the password algorithm being used is not SHA-512, once it is changed, it is recommended that all user ID's be immediately expired and forced to change their passwords on next login. To accomplish that, the following commands can be used. Any system accounts that need to be expired should be carefully done separately by the system administrator to prevent any potential problems.  # awk -F: '( $3 &amp;gt;= $(awk '/^\s*UID_MIN/{print $2}' /etc/login.defs) &amp;amp;&amp;amp; $1 != 'nfsnobody' ) { print $1 }' /etc/passwd | xargs -n 1 chage -d 0</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>/etc/pam.d/common-password</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>^password.*pam_unix\.so.*sha512$</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>^password.*pam_unix\.so.*sha512$</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>5.4.1.1</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Ensure password expiration is 365 days or less - login.defs</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Set the PASS_MAX_DAYS parameter to conform to site policy in /etc/login.defs :  PASS_MAX_DAYS 365  Modify user parameters for all users with a password set to match:  # chage --maxdays 365 &lt;user&gt;  Notes:  You can also check this setting in /etc/shadow directly. The 5th field should be 365 or less for all users with a password.  Note: A value of -1 will disable password expiration. Additionally the password expiration must be greater than the minimum days between password changes or users will be unable to change their password.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>/etc/login.defs</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>^[\s]*PASS_MAX_DAYS[\s]+@PASSWORD_MAX_DAYS@[\s]*$</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>^[\s]*PASS_MAX_DAYS[\s]</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>5.4.1.1</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Ensure password expiration is 365 days or less - users</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Set the PASS_MAX_DAYS parameter to conform to site policy in /etc/login.defs :  PASS_MAX_DAYS 365  Modify user parameters for all users with a password set to match:  # chage --maxdays 365 &lt;user&gt;  Notes:  You can also check this setting in /etc/shadow directly. The 5th field should be 365 or less for all users with a password.  Note: A value of -1 will disable password expiration. Additionally the password expiration must be greater than the minimum days between password changes or users will be unable to change their password.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>/etc/shadow</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>^([^:]*:){4}@PASSWORD_MAX_DAYS@:</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>^[^:]+:[^!*]</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>1:root:$y$j9T$ZAqGpmZL3dXmFzpLMRTKx0$x7nVBwwUPiI4A595o/jLRCAUWT10oiGJdT3OnMFV04.:19570:0:99999:7:::36:vboxuser:$y$j9T$O5FXW0Or0OEDOaH5WFYR/0$XG7pxQmdZn.DNX/nilAfUUvOCJnLnD3t4fHRe1/Z/53:19564:0:99999:7:::</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>5.4.1.2</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Ensure minimum days between password changes is configured - login.defs</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Set the PASS_MIN_DAYS parameter to 1 in /etc/login.defs :  PASS_MIN_DAYS 1  Modify user parameters for all users with a password set to match:  # chage --mindays 1 &lt;user&gt;  Notes:  You can also check this setting in /etc/shadow directly. The 4th field should be 1 or more for all users with a password.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>/etc/login.defs</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>PASS_MIN_DAYS[\s]+@PASSWORD_MIN_DAYS@(?:[\s]*|[\s]+\#?.*)$</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>^[\s\t]*PASS_MIN_DAYS[\s]+</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>5.4.1.2</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Ensure minimum days between password changes is configured - users</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Set the PASS_MIN_DAYS parameter to 1 in /etc/login.defs :  PASS_MIN_DAYS 1  Modify user parameters for all users with a password set to match:  # chage --mindays 1 &lt;user&gt;  Notes:  You can also check this setting in /etc/shadow directly. The 4th field should be 1 or more for all users with a password.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>/etc/shadow</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>^([^:]*:){3}@PASSWORD_MIN_DAYS@:</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>^[^:]+:[^!*]</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>1:root:$y$j9T$ZAqGpmZL3dXmFzpLMRTKx0$x7nVBwwUPiI4A595o/jLRCAUWT10oiGJdT3OnMFV04.:19570:0:99999:7:::36:vboxuser:$y$j9T$O5FXW0Or0OEDOaH5WFYR/0$XG7pxQmdZn.DNX/nilAfUUvOCJnLnD3t4fHRe1/Z/53:19564:0:99999:7:::</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>5.4.1.3</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Ensure password expiration warning days is 7 or more - login.defs</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Set the PASS_WARN_AGE parameter to 7 in /etc/login.defs :  PASS_WARN_AGE 7  Modify user parameters for all users with a password set to match:  # chage --warndays 7 &lt;user&gt;  Notes:  You can also check this setting in /etc/shadow directly. The 6th field should be 7 or more for all users with a password.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>/etc/login.defs</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>^[\s]*PASS_WARN_AGE[\s]+@PASSWORD_WARN_AGE@[\s]*$</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>^[\s]*PASS_WARN_AGE[\s]+</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>5.4.1.3</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Ensure password expiration warning days is 7 or more - users</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Set the PASS_WARN_AGE parameter to 7 in /etc/login.defs :  PASS_WARN_AGE 7  Modify user parameters for all users with a password set to match:  # chage --warndays 7 &lt;user&gt;  Notes:  You can also check this setting in /etc/shadow directly. The 6th field should be 7 or more for all users with a password.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>/etc/shadow</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>^([^:]*:){5}@PASSWORD_WARN_AGE@:</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>^[^:]+:[^!*]</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>1:root:$y$j9T$ZAqGpmZL3dXmFzpLMRTKx0$x7nVBwwUPiI4A595o/jLRCAUWT10oiGJdT3OnMFV04.:19570:0:99999:7:::36:vboxuser:$y$j9T$O5FXW0Or0OEDOaH5WFYR/0$XG7pxQmdZn.DNX/nilAfUUvOCJnLnD3t4fHRe1/Z/53:19564:0:99999:7:::</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>5.4.1.4</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Ensure inactive password lock is 30 days or less - users</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Run the following command to set the default password inactivity period to 30 days:  # useradd -D -f 30  Modify user parameters for all users with a password set to match:  # chage --inactive 30 &lt;user&gt;  Notes:  You can also check this setting in /etc/shadow directly. The 7th field should be 30 or less for all users with a password.  Note: A value of -1 would disable this setting.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>/etc/shadow</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>^([^:]*:){6}@INACTIVE_PASSWORD_LOCK@:</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>^[^:]+:[^!*]</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>1:root:$y$j9T$ZAqGpmZL3dXmFzpLMRTKx0$x7nVBwwUPiI4A595o/jLRCAUWT10oiGJdT3OnMFV04.:19570:0:99999:7:::36:vboxuser:$y$j9T$O5FXW0Or0OEDOaH5WFYR/0$XG7pxQmdZn.DNX/nilAfUUvOCJnLnD3t4fHRe1/Z/53:19564:0:99999:7:::</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>5.4.3</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Ensure default group for the root account is GID 0</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Run the following command to set the root user default group to GID 0 :  # usermod -g 0 root</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>/etc/passwd</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>^root:x:0:0:</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>^root:</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>1:root:x:0:0:root:/root:/bin/bash</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>5.4.4</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Ensure default user umask is 027 or more restrictive - /etc/bash.bashrc</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Edit the /etc/bash.bashrc, /etc/profile and /etc/profile.d/*.sh files (and the appropriate files for any other shell supported on your system) and add or edit any umask parameters as follows:  umask 027  Notes:  The audit and remediation in this recommendation apply to bash and shell. If other shells are supported on the system, it is recommended that their configuration files also are checked.  Other methods of setting a default user umask exist however the shell configuration files are the last run and will override other settings if they exist therefor our recommendation is to configure in the shell configuration files. If other methods are in use in your environment they should be audited and the shell configs should be verified to not override.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>/etc/bash.bashrc</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>^[\s]*umask[\s]+[0-7][2-7]7[\s]*$</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>^[\s]*umask[\s]</t>
+        </is>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>5.4.4</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Ensure default user umask is 027 or more restrictive - /etc/profile</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Edit the /etc/bash.bashrc, /etc/profile and /etc/profile.d/*.sh files (and the appropriate files for any other shell supported on your system) and add or edit any umask parameters as follows:  umask 027  Notes:  The audit and remediation in this recommendation apply to bash and shell. If other shells are supported on the system, it is recommended that their configuration files also are checked.  Other methods of setting a default user umask exist however the shell configuration files are the last run and will override other settings if they exist therefor our recommendation is to configure in the shell configuration files. If other methods are in use in your environment they should be audited and the shell configs should be verified to not override.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>/etc/profile</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>^[\s]*umask[\s]+[0-7][2-7]7[\s]*$</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>^[\s]*umask[\s]</t>
+        </is>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>5.4.4</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Ensure default user umask is 027 or more restrictive - /etc/profile.d/*.sh</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Edit the /etc/bash.bashrc, /etc/profile and /etc/profile.d/*.sh files (and the appropriate files for any other shell supported on your system) and add or edit any umask parameters as follows:  umask 027  Notes:  The audit and remediation in this recommendation apply to bash and shell. If other shells are supported on the system, it is recommended that their configuration files also are checked.  Other methods of setting a default user umask exist however the shell configuration files are the last run and will override other settings if they exist therefor our recommendation is to configure in the shell configuration files. If other methods are in use in your environment they should be audited and the shell configs should be verified to not override.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>/etc/profile.d/*.sh</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>^[\s]*umask[\s]+[0-7][2-7]7[\s]*$</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>^[\s]*umask[\s]</t>
+        </is>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>FILE_CONTENT_CHECK</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>5.4.5</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Ensure default user shell timeout is 900 seconds or less</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Edit the /etc/bash.bashrc, /etc/profile and /etc/profile.d/*.sh files (and the appropriate files for any other shell supported on your system) and add or edit any TMOUT parameters in accordance with site policy:  readonly TMOUT=900 ; export TMOUT  Note: setting the value to readonly prevents unwanted modification during runtime.  Notes:  The audit and remediation in this recommendation apply to bash and shell. If other shells are supported on the system, it is recommended that their configuration files also are checked. Other methods of setting a timeout exist for other shells not covered here.  Ensure that the timeout conforms to your local policy.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>/etc/bash.bashrc /etc/profile /etc/profile.d/*.sh</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>^[\s]*(readonly[\s]+)?TMOUT[\s]*=[\s]*([1-9]|[1-9][0-9]|[1-8][0-9]{2}|900)(;|[\s]|$)</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>^[\s]*(readonly[\s]+)?TMOUT[\s]*=[\s]*</t>
+        </is>
+      </c>
+      <c r="Q291" t="inlineStr">
         <is>
           <t>FAILED</t>
         </is>
